--- a/data/operator_shares_by_generation_elite_only.xlsx
+++ b/data/operator_shares_by_generation_elite_only.xlsx
@@ -425,7 +425,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:W61"/>
+  <dimension ref="A1:W55"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -446,107 +446,107 @@
       </c>
       <c r="C1" s="1" t="inlineStr">
         <is>
+          <t>SemanticSimilarityCrossover_count</t>
+        </is>
+      </c>
+      <c r="D1" s="1" t="inlineStr">
+        <is>
+          <t>SemanticSimilarityCrossover_percentage</t>
+        </is>
+      </c>
+      <c r="E1" s="1" t="inlineStr">
+        <is>
+          <t>SemanticSimilarityCrossover_share</t>
+        </is>
+      </c>
+      <c r="F1" s="1" t="inlineStr">
+        <is>
           <t>LLMBasedParaphrasing_count</t>
         </is>
       </c>
-      <c r="D1" s="1" t="inlineStr">
+      <c r="G1" s="1" t="inlineStr">
         <is>
           <t>LLMBasedParaphrasing_percentage</t>
         </is>
       </c>
-      <c r="E1" s="1" t="inlineStr">
+      <c r="H1" s="1" t="inlineStr">
         <is>
           <t>LLMBasedParaphrasing_share</t>
         </is>
       </c>
-      <c r="F1" s="1" t="inlineStr">
+      <c r="I1" s="1" t="inlineStr">
+        <is>
+          <t>InstructionPreservingCrossover_count</t>
+        </is>
+      </c>
+      <c r="J1" s="1" t="inlineStr">
+        <is>
+          <t>InstructionPreservingCrossover_percentage</t>
+        </is>
+      </c>
+      <c r="K1" s="1" t="inlineStr">
+        <is>
+          <t>InstructionPreservingCrossover_share</t>
+        </is>
+      </c>
+      <c r="L1" s="1" t="inlineStr">
+        <is>
+          <t>OnePointCrossover_count</t>
+        </is>
+      </c>
+      <c r="M1" s="1" t="inlineStr">
+        <is>
+          <t>OnePointCrossover_percentage</t>
+        </is>
+      </c>
+      <c r="N1" s="1" t="inlineStr">
+        <is>
+          <t>OnePointCrossover_share</t>
+        </is>
+      </c>
+      <c r="O1" s="1" t="inlineStr">
         <is>
           <t>BertMLM_count</t>
         </is>
       </c>
-      <c r="G1" s="1" t="inlineStr">
+      <c r="P1" s="1" t="inlineStr">
         <is>
           <t>BertMLM_percentage</t>
         </is>
       </c>
-      <c r="H1" s="1" t="inlineStr">
+      <c r="Q1" s="1" t="inlineStr">
         <is>
           <t>BertMLM_share</t>
         </is>
       </c>
-      <c r="I1" s="1" t="inlineStr">
-        <is>
-          <t>SemanticSimilarityCrossover_count</t>
-        </is>
-      </c>
-      <c r="J1" s="1" t="inlineStr">
-        <is>
-          <t>SemanticSimilarityCrossover_percentage</t>
-        </is>
-      </c>
-      <c r="K1" s="1" t="inlineStr">
-        <is>
-          <t>SemanticSimilarityCrossover_share</t>
-        </is>
-      </c>
-      <c r="L1" s="1" t="inlineStr">
-        <is>
-          <t>InstructionPreservingCrossover_count</t>
-        </is>
-      </c>
-      <c r="M1" s="1" t="inlineStr">
-        <is>
-          <t>InstructionPreservingCrossover_percentage</t>
-        </is>
-      </c>
-      <c r="N1" s="1" t="inlineStr">
-        <is>
-          <t>InstructionPreservingCrossover_share</t>
-        </is>
-      </c>
-      <c r="O1" s="1" t="inlineStr">
-        <is>
-          <t>BackTranslation_count</t>
-        </is>
-      </c>
-      <c r="P1" s="1" t="inlineStr">
-        <is>
-          <t>BackTranslation_percentage</t>
-        </is>
-      </c>
-      <c r="Q1" s="1" t="inlineStr">
-        <is>
-          <t>BackTranslation_share</t>
-        </is>
-      </c>
       <c r="R1" s="1" t="inlineStr">
         <is>
-          <t>POSAwareSynonymReplacement_count</t>
+          <t>LLMBackTranslation_HI_count</t>
         </is>
       </c>
       <c r="S1" s="1" t="inlineStr">
         <is>
-          <t>POSAwareSynonymReplacement_percentage</t>
+          <t>LLMBackTranslation_HI_percentage</t>
         </is>
       </c>
       <c r="T1" s="1" t="inlineStr">
         <is>
-          <t>POSAwareSynonymReplacement_share</t>
+          <t>LLMBackTranslation_HI_share</t>
         </is>
       </c>
       <c r="U1" s="1" t="inlineStr">
         <is>
-          <t>OnePointCrossover_count</t>
+          <t>BackTranslation_JA_count</t>
         </is>
       </c>
       <c r="V1" s="1" t="inlineStr">
         <is>
-          <t>OnePointCrossover_percentage</t>
+          <t>BackTranslation_JA_percentage</t>
         </is>
       </c>
       <c r="W1" s="1" t="inlineStr">
         <is>
-          <t>OnePointCrossover_share</t>
+          <t>BackTranslation_JA_share</t>
         </is>
       </c>
     </row>
@@ -623,7 +623,7 @@
     </row>
     <row r="3">
       <c r="A3" t="n">
-        <v>3</v>
+        <v>1</v>
       </c>
       <c r="B3" t="n">
         <v>1</v>
@@ -694,55 +694,55 @@
     </row>
     <row r="4">
       <c r="A4" t="n">
-        <v>10</v>
+        <v>5</v>
       </c>
       <c r="B4" t="n">
         <v>1</v>
       </c>
       <c r="C4" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="D4" t="n">
+        <v>0</v>
+      </c>
+      <c r="E4" t="n">
+        <v>0</v>
+      </c>
+      <c r="F4" t="n">
+        <v>0</v>
+      </c>
+      <c r="G4" t="n">
+        <v>0</v>
+      </c>
+      <c r="H4" t="n">
+        <v>0</v>
+      </c>
+      <c r="I4" t="n">
+        <v>0</v>
+      </c>
+      <c r="J4" t="n">
+        <v>0</v>
+      </c>
+      <c r="K4" t="n">
+        <v>0</v>
+      </c>
+      <c r="L4" t="n">
+        <v>0</v>
+      </c>
+      <c r="M4" t="n">
+        <v>0</v>
+      </c>
+      <c r="N4" t="n">
+        <v>0</v>
+      </c>
+      <c r="O4" t="n">
+        <v>1</v>
+      </c>
+      <c r="P4" t="n">
         <v>100</v>
       </c>
-      <c r="E4" t="n">
-        <v>1</v>
-      </c>
-      <c r="F4" t="n">
-        <v>0</v>
-      </c>
-      <c r="G4" t="n">
-        <v>0</v>
-      </c>
-      <c r="H4" t="n">
-        <v>0</v>
-      </c>
-      <c r="I4" t="n">
-        <v>0</v>
-      </c>
-      <c r="J4" t="n">
-        <v>0</v>
-      </c>
-      <c r="K4" t="n">
-        <v>0</v>
-      </c>
-      <c r="L4" t="n">
-        <v>0</v>
-      </c>
-      <c r="M4" t="n">
-        <v>0</v>
-      </c>
-      <c r="N4" t="n">
-        <v>0</v>
-      </c>
-      <c r="O4" t="n">
-        <v>0</v>
-      </c>
-      <c r="P4" t="n">
-        <v>0</v>
-      </c>
       <c r="Q4" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="R4" t="n">
         <v>0</v>
@@ -765,19 +765,19 @@
     </row>
     <row r="5">
       <c r="A5" t="n">
-        <v>12</v>
+        <v>6</v>
       </c>
       <c r="B5" t="n">
-        <v>1</v>
+        <v>4</v>
       </c>
       <c r="C5" t="n">
         <v>1</v>
       </c>
       <c r="D5" t="n">
-        <v>100</v>
+        <v>25</v>
       </c>
       <c r="E5" t="n">
-        <v>1</v>
+        <v>0.25</v>
       </c>
       <c r="F5" t="n">
         <v>0</v>
@@ -789,22 +789,22 @@
         <v>0</v>
       </c>
       <c r="I5" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="J5" t="n">
-        <v>0</v>
+        <v>50</v>
       </c>
       <c r="K5" t="n">
-        <v>0</v>
+        <v>0.5</v>
       </c>
       <c r="L5" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="M5" t="n">
-        <v>0</v>
+        <v>25</v>
       </c>
       <c r="N5" t="n">
-        <v>0</v>
+        <v>0.25</v>
       </c>
       <c r="O5" t="n">
         <v>0</v>
@@ -836,7 +836,7 @@
     </row>
     <row r="6">
       <c r="A6" t="n">
-        <v>15</v>
+        <v>7</v>
       </c>
       <c r="B6" t="n">
         <v>1</v>
@@ -851,40 +851,40 @@
         <v>0</v>
       </c>
       <c r="F6" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="G6" t="n">
+        <v>0</v>
+      </c>
+      <c r="H6" t="n">
+        <v>0</v>
+      </c>
+      <c r="I6" t="n">
+        <v>0</v>
+      </c>
+      <c r="J6" t="n">
+        <v>0</v>
+      </c>
+      <c r="K6" t="n">
+        <v>0</v>
+      </c>
+      <c r="L6" t="n">
+        <v>0</v>
+      </c>
+      <c r="M6" t="n">
+        <v>0</v>
+      </c>
+      <c r="N6" t="n">
+        <v>0</v>
+      </c>
+      <c r="O6" t="n">
+        <v>1</v>
+      </c>
+      <c r="P6" t="n">
         <v>100</v>
       </c>
-      <c r="H6" t="n">
-        <v>1</v>
-      </c>
-      <c r="I6" t="n">
-        <v>0</v>
-      </c>
-      <c r="J6" t="n">
-        <v>0</v>
-      </c>
-      <c r="K6" t="n">
-        <v>0</v>
-      </c>
-      <c r="L6" t="n">
-        <v>0</v>
-      </c>
-      <c r="M6" t="n">
-        <v>0</v>
-      </c>
-      <c r="N6" t="n">
-        <v>0</v>
-      </c>
-      <c r="O6" t="n">
-        <v>0</v>
-      </c>
-      <c r="P6" t="n">
-        <v>0</v>
-      </c>
       <c r="Q6" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="R6" t="n">
         <v>0</v>
@@ -907,7 +907,7 @@
     </row>
     <row r="7">
       <c r="A7" t="n">
-        <v>17</v>
+        <v>8</v>
       </c>
       <c r="B7" t="n">
         <v>2</v>
@@ -931,31 +931,31 @@
         <v>0.5</v>
       </c>
       <c r="I7" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="J7" t="n">
+        <v>0</v>
+      </c>
+      <c r="K7" t="n">
+        <v>0</v>
+      </c>
+      <c r="L7" t="n">
+        <v>0</v>
+      </c>
+      <c r="M7" t="n">
+        <v>0</v>
+      </c>
+      <c r="N7" t="n">
+        <v>0</v>
+      </c>
+      <c r="O7" t="n">
+        <v>1</v>
+      </c>
+      <c r="P7" t="n">
         <v>50</v>
       </c>
-      <c r="K7" t="n">
+      <c r="Q7" t="n">
         <v>0.5</v>
-      </c>
-      <c r="L7" t="n">
-        <v>0</v>
-      </c>
-      <c r="M7" t="n">
-        <v>0</v>
-      </c>
-      <c r="N7" t="n">
-        <v>0</v>
-      </c>
-      <c r="O7" t="n">
-        <v>0</v>
-      </c>
-      <c r="P7" t="n">
-        <v>0</v>
-      </c>
-      <c r="Q7" t="n">
-        <v>0</v>
       </c>
       <c r="R7" t="n">
         <v>0</v>
@@ -978,7 +978,7 @@
     </row>
     <row r="8">
       <c r="A8" t="n">
-        <v>19</v>
+        <v>14</v>
       </c>
       <c r="B8" t="n">
         <v>1</v>
@@ -1049,7 +1049,7 @@
     </row>
     <row r="9">
       <c r="A9" t="n">
-        <v>20</v>
+        <v>16</v>
       </c>
       <c r="B9" t="n">
         <v>1</v>
@@ -1120,7 +1120,7 @@
     </row>
     <row r="10">
       <c r="A10" t="n">
-        <v>21</v>
+        <v>18</v>
       </c>
       <c r="B10" t="n">
         <v>1</v>
@@ -1191,10 +1191,10 @@
     </row>
     <row r="11">
       <c r="A11" t="n">
-        <v>22</v>
+        <v>20</v>
       </c>
       <c r="B11" t="n">
-        <v>4</v>
+        <v>1</v>
       </c>
       <c r="C11" t="n">
         <v>0</v>
@@ -1206,40 +1206,40 @@
         <v>0</v>
       </c>
       <c r="F11" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="G11" t="n">
-        <v>25</v>
+        <v>0</v>
       </c>
       <c r="H11" t="n">
-        <v>0.25</v>
+        <v>0</v>
       </c>
       <c r="I11" t="n">
         <v>1</v>
       </c>
       <c r="J11" t="n">
-        <v>25</v>
+        <v>100</v>
       </c>
       <c r="K11" t="n">
-        <v>0.25</v>
+        <v>1</v>
       </c>
       <c r="L11" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="M11" t="n">
-        <v>25</v>
+        <v>0</v>
       </c>
       <c r="N11" t="n">
-        <v>0.25</v>
+        <v>0</v>
       </c>
       <c r="O11" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="P11" t="n">
-        <v>25</v>
+        <v>0</v>
       </c>
       <c r="Q11" t="n">
-        <v>0.25</v>
+        <v>0</v>
       </c>
       <c r="R11" t="n">
         <v>0</v>
@@ -1262,7 +1262,7 @@
     </row>
     <row r="12">
       <c r="A12" t="n">
-        <v>23</v>
+        <v>21</v>
       </c>
       <c r="B12" t="n">
         <v>1</v>
@@ -1333,10 +1333,10 @@
     </row>
     <row r="13">
       <c r="A13" t="n">
-        <v>24</v>
+        <v>22</v>
       </c>
       <c r="B13" t="n">
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="C13" t="n">
         <v>0</v>
@@ -1360,19 +1360,19 @@
         <v>1</v>
       </c>
       <c r="J13" t="n">
-        <v>50</v>
+        <v>33.33333333333333</v>
       </c>
       <c r="K13" t="n">
-        <v>0.5</v>
+        <v>0.3333333333333333</v>
       </c>
       <c r="L13" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="M13" t="n">
-        <v>0</v>
+        <v>33.33333333333333</v>
       </c>
       <c r="N13" t="n">
-        <v>0</v>
+        <v>0.3333333333333333</v>
       </c>
       <c r="O13" t="n">
         <v>0</v>
@@ -1384,30 +1384,30 @@
         <v>0</v>
       </c>
       <c r="R13" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="S13" t="n">
-        <v>50</v>
+        <v>0</v>
       </c>
       <c r="T13" t="n">
-        <v>0.5</v>
+        <v>0</v>
       </c>
       <c r="U13" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="V13" t="n">
-        <v>0</v>
+        <v>33.33333333333333</v>
       </c>
       <c r="W13" t="n">
-        <v>0</v>
+        <v>0.3333333333333333</v>
       </c>
     </row>
     <row r="14">
       <c r="A14" t="n">
-        <v>25</v>
+        <v>26</v>
       </c>
       <c r="B14" t="n">
-        <v>3</v>
+        <v>1</v>
       </c>
       <c r="C14" t="n">
         <v>0</v>
@@ -1419,31 +1419,31 @@
         <v>0</v>
       </c>
       <c r="F14" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="G14" t="n">
-        <v>33.33333333333333</v>
+        <v>0</v>
       </c>
       <c r="H14" t="n">
-        <v>0.3333333333333333</v>
+        <v>0</v>
       </c>
       <c r="I14" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="J14" t="n">
-        <v>0</v>
+        <v>100</v>
       </c>
       <c r="K14" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="L14" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="M14" t="n">
-        <v>33.33333333333333</v>
+        <v>0</v>
       </c>
       <c r="N14" t="n">
-        <v>0.3333333333333333</v>
+        <v>0</v>
       </c>
       <c r="O14" t="n">
         <v>0</v>
@@ -1455,13 +1455,13 @@
         <v>0</v>
       </c>
       <c r="R14" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="S14" t="n">
-        <v>33.33333333333333</v>
+        <v>0</v>
       </c>
       <c r="T14" t="n">
-        <v>0.3333333333333333</v>
+        <v>0</v>
       </c>
       <c r="U14" t="n">
         <v>0</v>
@@ -1475,7 +1475,7 @@
     </row>
     <row r="15">
       <c r="A15" t="n">
-        <v>26</v>
+        <v>27</v>
       </c>
       <c r="B15" t="n">
         <v>1</v>
@@ -1499,13 +1499,13 @@
         <v>0</v>
       </c>
       <c r="I15" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="J15" t="n">
-        <v>0</v>
+        <v>100</v>
       </c>
       <c r="K15" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="L15" t="n">
         <v>0</v>
@@ -1526,13 +1526,13 @@
         <v>0</v>
       </c>
       <c r="R15" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="S15" t="n">
-        <v>100</v>
+        <v>0</v>
       </c>
       <c r="T15" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="U15" t="n">
         <v>0</v>
@@ -1546,7 +1546,7 @@
     </row>
     <row r="16">
       <c r="A16" t="n">
-        <v>28</v>
+        <v>31</v>
       </c>
       <c r="B16" t="n">
         <v>1</v>
@@ -1561,40 +1561,40 @@
         <v>0</v>
       </c>
       <c r="F16" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="G16" t="n">
+        <v>0</v>
+      </c>
+      <c r="H16" t="n">
+        <v>0</v>
+      </c>
+      <c r="I16" t="n">
+        <v>0</v>
+      </c>
+      <c r="J16" t="n">
+        <v>0</v>
+      </c>
+      <c r="K16" t="n">
+        <v>0</v>
+      </c>
+      <c r="L16" t="n">
+        <v>0</v>
+      </c>
+      <c r="M16" t="n">
+        <v>0</v>
+      </c>
+      <c r="N16" t="n">
+        <v>0</v>
+      </c>
+      <c r="O16" t="n">
+        <v>1</v>
+      </c>
+      <c r="P16" t="n">
         <v>100</v>
       </c>
-      <c r="H16" t="n">
-        <v>1</v>
-      </c>
-      <c r="I16" t="n">
-        <v>0</v>
-      </c>
-      <c r="J16" t="n">
-        <v>0</v>
-      </c>
-      <c r="K16" t="n">
-        <v>0</v>
-      </c>
-      <c r="L16" t="n">
-        <v>0</v>
-      </c>
-      <c r="M16" t="n">
-        <v>0</v>
-      </c>
-      <c r="N16" t="n">
-        <v>0</v>
-      </c>
-      <c r="O16" t="n">
-        <v>0</v>
-      </c>
-      <c r="P16" t="n">
-        <v>0</v>
-      </c>
       <c r="Q16" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="R16" t="n">
         <v>0</v>
@@ -1617,7 +1617,7 @@
     </row>
     <row r="17">
       <c r="A17" t="n">
-        <v>29</v>
+        <v>32</v>
       </c>
       <c r="B17" t="n">
         <v>1</v>
@@ -1641,13 +1641,13 @@
         <v>0</v>
       </c>
       <c r="I17" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="J17" t="n">
-        <v>0</v>
+        <v>100</v>
       </c>
       <c r="K17" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="L17" t="n">
         <v>0</v>
@@ -1677,21 +1677,21 @@
         <v>0</v>
       </c>
       <c r="U17" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="V17" t="n">
-        <v>100</v>
+        <v>0</v>
       </c>
       <c r="W17" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="18">
       <c r="A18" t="n">
-        <v>30</v>
+        <v>33</v>
       </c>
       <c r="B18" t="n">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="C18" t="n">
         <v>0</v>
@@ -1703,31 +1703,31 @@
         <v>0</v>
       </c>
       <c r="F18" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="G18" t="n">
-        <v>0</v>
+        <v>50</v>
       </c>
       <c r="H18" t="n">
-        <v>0</v>
+        <v>0.5</v>
       </c>
       <c r="I18" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="J18" t="n">
-        <v>0</v>
+        <v>50</v>
       </c>
       <c r="K18" t="n">
-        <v>0</v>
+        <v>0.5</v>
       </c>
       <c r="L18" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="M18" t="n">
-        <v>100</v>
+        <v>0</v>
       </c>
       <c r="N18" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="O18" t="n">
         <v>0</v>
@@ -1759,19 +1759,19 @@
     </row>
     <row r="19">
       <c r="A19" t="n">
-        <v>31</v>
+        <v>35</v>
       </c>
       <c r="B19" t="n">
         <v>2</v>
       </c>
       <c r="C19" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="D19" t="n">
-        <v>0</v>
+        <v>50</v>
       </c>
       <c r="E19" t="n">
-        <v>0</v>
+        <v>0.5</v>
       </c>
       <c r="F19" t="n">
         <v>0</v>
@@ -1819,30 +1819,30 @@
         <v>0</v>
       </c>
       <c r="U19" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="V19" t="n">
-        <v>50</v>
+        <v>0</v>
       </c>
       <c r="W19" t="n">
-        <v>0.5</v>
+        <v>0</v>
       </c>
     </row>
     <row r="20">
       <c r="A20" t="n">
-        <v>32</v>
+        <v>36</v>
       </c>
       <c r="B20" t="n">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="C20" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="D20" t="n">
-        <v>0</v>
+        <v>100</v>
       </c>
       <c r="E20" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="F20" t="n">
         <v>0</v>
@@ -1863,13 +1863,13 @@
         <v>0</v>
       </c>
       <c r="L20" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="M20" t="n">
-        <v>100</v>
+        <v>0</v>
       </c>
       <c r="N20" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="O20" t="n">
         <v>0</v>
@@ -1901,28 +1901,28 @@
     </row>
     <row r="21">
       <c r="A21" t="n">
-        <v>33</v>
+        <v>37</v>
       </c>
       <c r="B21" t="n">
         <v>2</v>
       </c>
       <c r="C21" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="D21" t="n">
-        <v>0</v>
+        <v>50</v>
       </c>
       <c r="E21" t="n">
-        <v>0</v>
+        <v>0.5</v>
       </c>
       <c r="F21" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="G21" t="n">
-        <v>0</v>
+        <v>50</v>
       </c>
       <c r="H21" t="n">
-        <v>0</v>
+        <v>0.5</v>
       </c>
       <c r="I21" t="n">
         <v>0</v>
@@ -1934,13 +1934,13 @@
         <v>0</v>
       </c>
       <c r="L21" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="M21" t="n">
-        <v>100</v>
+        <v>0</v>
       </c>
       <c r="N21" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="O21" t="n">
         <v>0</v>
@@ -1972,7 +1972,7 @@
     </row>
     <row r="22">
       <c r="A22" t="n">
-        <v>34</v>
+        <v>39</v>
       </c>
       <c r="B22" t="n">
         <v>1</v>
@@ -1996,22 +1996,22 @@
         <v>0</v>
       </c>
       <c r="I22" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="J22" t="n">
-        <v>0</v>
+        <v>100</v>
       </c>
       <c r="K22" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="L22" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="M22" t="n">
-        <v>100</v>
+        <v>0</v>
       </c>
       <c r="N22" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="O22" t="n">
         <v>0</v>
@@ -2043,7 +2043,7 @@
     </row>
     <row r="23">
       <c r="A23" t="n">
-        <v>37</v>
+        <v>41</v>
       </c>
       <c r="B23" t="n">
         <v>1</v>
@@ -2114,19 +2114,19 @@
     </row>
     <row r="24">
       <c r="A24" t="n">
-        <v>39</v>
+        <v>42</v>
       </c>
       <c r="B24" t="n">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="C24" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="D24" t="n">
-        <v>0</v>
+        <v>50</v>
       </c>
       <c r="E24" t="n">
-        <v>0</v>
+        <v>0.5</v>
       </c>
       <c r="F24" t="n">
         <v>0</v>
@@ -2147,13 +2147,13 @@
         <v>0</v>
       </c>
       <c r="L24" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="M24" t="n">
-        <v>0</v>
+        <v>50</v>
       </c>
       <c r="N24" t="n">
-        <v>0</v>
+        <v>0.5</v>
       </c>
       <c r="O24" t="n">
         <v>0</v>
@@ -2165,13 +2165,13 @@
         <v>0</v>
       </c>
       <c r="R24" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="S24" t="n">
-        <v>100</v>
+        <v>0</v>
       </c>
       <c r="T24" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="U24" t="n">
         <v>0</v>
@@ -2185,10 +2185,10 @@
     </row>
     <row r="25">
       <c r="A25" t="n">
-        <v>41</v>
+        <v>43</v>
       </c>
       <c r="B25" t="n">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="C25" t="n">
         <v>0</v>
@@ -2200,13 +2200,13 @@
         <v>0</v>
       </c>
       <c r="F25" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="G25" t="n">
-        <v>0</v>
+        <v>100</v>
       </c>
       <c r="H25" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="I25" t="n">
         <v>0</v>
@@ -2236,30 +2236,30 @@
         <v>0</v>
       </c>
       <c r="R25" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="S25" t="n">
-        <v>50</v>
+        <v>0</v>
       </c>
       <c r="T25" t="n">
-        <v>0.5</v>
+        <v>0</v>
       </c>
       <c r="U25" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="V25" t="n">
-        <v>50</v>
+        <v>0</v>
       </c>
       <c r="W25" t="n">
-        <v>0.5</v>
+        <v>0</v>
       </c>
     </row>
     <row r="26">
       <c r="A26" t="n">
-        <v>46</v>
+        <v>45</v>
       </c>
       <c r="B26" t="n">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="C26" t="n">
         <v>0</v>
@@ -2271,22 +2271,22 @@
         <v>0</v>
       </c>
       <c r="F26" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="G26" t="n">
+        <v>0</v>
+      </c>
+      <c r="H26" t="n">
+        <v>0</v>
+      </c>
+      <c r="I26" t="n">
+        <v>2</v>
+      </c>
+      <c r="J26" t="n">
         <v>100</v>
       </c>
-      <c r="H26" t="n">
-        <v>1</v>
-      </c>
-      <c r="I26" t="n">
-        <v>0</v>
-      </c>
-      <c r="J26" t="n">
-        <v>0</v>
-      </c>
       <c r="K26" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="L26" t="n">
         <v>0</v>
@@ -2327,7 +2327,7 @@
     </row>
     <row r="27">
       <c r="A27" t="n">
-        <v>47</v>
+        <v>48</v>
       </c>
       <c r="B27" t="n">
         <v>1</v>
@@ -2342,13 +2342,13 @@
         <v>0</v>
       </c>
       <c r="F27" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="G27" t="n">
-        <v>0</v>
+        <v>100</v>
       </c>
       <c r="H27" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="I27" t="n">
         <v>0</v>
@@ -2360,13 +2360,13 @@
         <v>0</v>
       </c>
       <c r="L27" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="M27" t="n">
-        <v>100</v>
+        <v>0</v>
       </c>
       <c r="N27" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="O27" t="n">
         <v>0</v>
@@ -2398,7 +2398,7 @@
     </row>
     <row r="28">
       <c r="A28" t="n">
-        <v>48</v>
+        <v>50</v>
       </c>
       <c r="B28" t="n">
         <v>2</v>
@@ -2422,13 +2422,13 @@
         <v>0</v>
       </c>
       <c r="I28" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="J28" t="n">
-        <v>0</v>
+        <v>50</v>
       </c>
       <c r="K28" t="n">
-        <v>0</v>
+        <v>0.5</v>
       </c>
       <c r="L28" t="n">
         <v>0</v>
@@ -2458,30 +2458,30 @@
         <v>0</v>
       </c>
       <c r="U28" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="V28" t="n">
-        <v>50</v>
+        <v>0</v>
       </c>
       <c r="W28" t="n">
-        <v>0.5</v>
+        <v>0</v>
       </c>
     </row>
     <row r="29">
       <c r="A29" t="n">
-        <v>49</v>
+        <v>51</v>
       </c>
       <c r="B29" t="n">
-        <v>1</v>
+        <v>6</v>
       </c>
       <c r="C29" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="D29" t="n">
-        <v>0</v>
+        <v>33.33333333333333</v>
       </c>
       <c r="E29" t="n">
-        <v>0</v>
+        <v>0.3333333333333333</v>
       </c>
       <c r="F29" t="n">
         <v>0</v>
@@ -2493,22 +2493,22 @@
         <v>0</v>
       </c>
       <c r="I29" t="n">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="J29" t="n">
-        <v>100</v>
+        <v>50</v>
       </c>
       <c r="K29" t="n">
-        <v>1</v>
+        <v>0.5</v>
       </c>
       <c r="L29" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="M29" t="n">
-        <v>0</v>
+        <v>16.66666666666666</v>
       </c>
       <c r="N29" t="n">
-        <v>0</v>
+        <v>0.1666666666666667</v>
       </c>
       <c r="O29" t="n">
         <v>0</v>
@@ -2540,37 +2540,37 @@
     </row>
     <row r="30">
       <c r="A30" t="n">
-        <v>55</v>
+        <v>52</v>
       </c>
       <c r="B30" t="n">
         <v>1</v>
       </c>
       <c r="C30" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="D30" t="n">
+        <v>0</v>
+      </c>
+      <c r="E30" t="n">
+        <v>0</v>
+      </c>
+      <c r="F30" t="n">
+        <v>0</v>
+      </c>
+      <c r="G30" t="n">
+        <v>0</v>
+      </c>
+      <c r="H30" t="n">
+        <v>0</v>
+      </c>
+      <c r="I30" t="n">
+        <v>1</v>
+      </c>
+      <c r="J30" t="n">
         <v>100</v>
       </c>
-      <c r="E30" t="n">
-        <v>1</v>
-      </c>
-      <c r="F30" t="n">
-        <v>0</v>
-      </c>
-      <c r="G30" t="n">
-        <v>0</v>
-      </c>
-      <c r="H30" t="n">
-        <v>0</v>
-      </c>
-      <c r="I30" t="n">
-        <v>0</v>
-      </c>
-      <c r="J30" t="n">
-        <v>0</v>
-      </c>
       <c r="K30" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="L30" t="n">
         <v>0</v>
@@ -2611,10 +2611,10 @@
     </row>
     <row r="31">
       <c r="A31" t="n">
-        <v>58</v>
+        <v>53</v>
       </c>
       <c r="B31" t="n">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="C31" t="n">
         <v>0</v>
@@ -2626,31 +2626,31 @@
         <v>0</v>
       </c>
       <c r="F31" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="G31" t="n">
-        <v>100</v>
+        <v>0</v>
       </c>
       <c r="H31" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="I31" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="J31" t="n">
-        <v>0</v>
+        <v>50</v>
       </c>
       <c r="K31" t="n">
-        <v>0</v>
+        <v>0.5</v>
       </c>
       <c r="L31" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="M31" t="n">
-        <v>0</v>
+        <v>50</v>
       </c>
       <c r="N31" t="n">
-        <v>0</v>
+        <v>0.5</v>
       </c>
       <c r="O31" t="n">
         <v>0</v>
@@ -2682,10 +2682,10 @@
     </row>
     <row r="32">
       <c r="A32" t="n">
-        <v>62</v>
+        <v>54</v>
       </c>
       <c r="B32" t="n">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="C32" t="n">
         <v>0</v>
@@ -2697,13 +2697,13 @@
         <v>0</v>
       </c>
       <c r="F32" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="G32" t="n">
-        <v>0</v>
+        <v>66.66666666666666</v>
       </c>
       <c r="H32" t="n">
-        <v>0</v>
+        <v>0.6666666666666666</v>
       </c>
       <c r="I32" t="n">
         <v>0</v>
@@ -2715,22 +2715,22 @@
         <v>0</v>
       </c>
       <c r="L32" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="M32" t="n">
-        <v>100</v>
+        <v>0</v>
       </c>
       <c r="N32" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="O32" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="P32" t="n">
-        <v>0</v>
+        <v>33.33333333333333</v>
       </c>
       <c r="Q32" t="n">
-        <v>0</v>
+        <v>0.3333333333333333</v>
       </c>
       <c r="R32" t="n">
         <v>0</v>
@@ -2753,19 +2753,19 @@
     </row>
     <row r="33">
       <c r="A33" t="n">
-        <v>65</v>
+        <v>55</v>
       </c>
       <c r="B33" t="n">
         <v>1</v>
       </c>
       <c r="C33" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="D33" t="n">
-        <v>0</v>
+        <v>100</v>
       </c>
       <c r="E33" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="F33" t="n">
         <v>0</v>
@@ -2786,13 +2786,13 @@
         <v>0</v>
       </c>
       <c r="L33" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="M33" t="n">
-        <v>100</v>
+        <v>0</v>
       </c>
       <c r="N33" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="O33" t="n">
         <v>0</v>
@@ -2824,7 +2824,7 @@
     </row>
     <row r="34">
       <c r="A34" t="n">
-        <v>66</v>
+        <v>56</v>
       </c>
       <c r="B34" t="n">
         <v>1</v>
@@ -2857,22 +2857,22 @@
         <v>0</v>
       </c>
       <c r="L34" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="M34" t="n">
+        <v>0</v>
+      </c>
+      <c r="N34" t="n">
+        <v>0</v>
+      </c>
+      <c r="O34" t="n">
+        <v>1</v>
+      </c>
+      <c r="P34" t="n">
         <v>100</v>
       </c>
-      <c r="N34" t="n">
-        <v>1</v>
-      </c>
-      <c r="O34" t="n">
-        <v>0</v>
-      </c>
-      <c r="P34" t="n">
-        <v>0</v>
-      </c>
       <c r="Q34" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="R34" t="n">
         <v>0</v>
@@ -2895,28 +2895,28 @@
     </row>
     <row r="35">
       <c r="A35" t="n">
-        <v>69</v>
+        <v>57</v>
       </c>
       <c r="B35" t="n">
         <v>2</v>
       </c>
       <c r="C35" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="D35" t="n">
+        <v>0</v>
+      </c>
+      <c r="E35" t="n">
+        <v>0</v>
+      </c>
+      <c r="F35" t="n">
+        <v>1</v>
+      </c>
+      <c r="G35" t="n">
         <v>50</v>
       </c>
-      <c r="E35" t="n">
+      <c r="H35" t="n">
         <v>0.5</v>
-      </c>
-      <c r="F35" t="n">
-        <v>0</v>
-      </c>
-      <c r="G35" t="n">
-        <v>0</v>
-      </c>
-      <c r="H35" t="n">
-        <v>0</v>
       </c>
       <c r="I35" t="n">
         <v>1</v>
@@ -2966,7 +2966,7 @@
     </row>
     <row r="36">
       <c r="A36" t="n">
-        <v>70</v>
+        <v>60</v>
       </c>
       <c r="B36" t="n">
         <v>1</v>
@@ -2990,22 +2990,22 @@
         <v>0</v>
       </c>
       <c r="I36" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="J36" t="n">
-        <v>0</v>
+        <v>100</v>
       </c>
       <c r="K36" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="L36" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="M36" t="n">
-        <v>100</v>
+        <v>0</v>
       </c>
       <c r="N36" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="O36" t="n">
         <v>0</v>
@@ -3037,10 +3037,10 @@
     </row>
     <row r="37">
       <c r="A37" t="n">
-        <v>71</v>
+        <v>61</v>
       </c>
       <c r="B37" t="n">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="C37" t="n">
         <v>0</v>
@@ -3052,31 +3052,31 @@
         <v>0</v>
       </c>
       <c r="F37" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="G37" t="n">
-        <v>50</v>
+        <v>0</v>
       </c>
       <c r="H37" t="n">
-        <v>0.5</v>
+        <v>0</v>
       </c>
       <c r="I37" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="J37" t="n">
-        <v>0</v>
+        <v>100</v>
       </c>
       <c r="K37" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="L37" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="M37" t="n">
-        <v>50</v>
+        <v>0</v>
       </c>
       <c r="N37" t="n">
-        <v>0.5</v>
+        <v>0</v>
       </c>
       <c r="O37" t="n">
         <v>0</v>
@@ -3108,28 +3108,28 @@
     </row>
     <row r="38">
       <c r="A38" t="n">
-        <v>72</v>
+        <v>62</v>
       </c>
       <c r="B38" t="n">
         <v>2</v>
       </c>
       <c r="C38" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="D38" t="n">
-        <v>0</v>
+        <v>50</v>
       </c>
       <c r="E38" t="n">
-        <v>0</v>
+        <v>0.5</v>
       </c>
       <c r="F38" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="G38" t="n">
-        <v>50</v>
+        <v>0</v>
       </c>
       <c r="H38" t="n">
-        <v>0.5</v>
+        <v>0</v>
       </c>
       <c r="I38" t="n">
         <v>1</v>
@@ -3179,28 +3179,28 @@
     </row>
     <row r="39">
       <c r="A39" t="n">
-        <v>73</v>
+        <v>63</v>
       </c>
       <c r="B39" t="n">
-        <v>5</v>
+        <v>2</v>
       </c>
       <c r="C39" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="D39" t="n">
-        <v>0</v>
+        <v>100</v>
       </c>
       <c r="E39" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="F39" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="G39" t="n">
-        <v>40</v>
+        <v>0</v>
       </c>
       <c r="H39" t="n">
-        <v>0.4</v>
+        <v>0</v>
       </c>
       <c r="I39" t="n">
         <v>0</v>
@@ -3212,13 +3212,13 @@
         <v>0</v>
       </c>
       <c r="L39" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="M39" t="n">
-        <v>20</v>
+        <v>0</v>
       </c>
       <c r="N39" t="n">
-        <v>0.2</v>
+        <v>0</v>
       </c>
       <c r="O39" t="n">
         <v>0</v>
@@ -3230,57 +3230,57 @@
         <v>0</v>
       </c>
       <c r="R39" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="S39" t="n">
-        <v>20</v>
+        <v>0</v>
       </c>
       <c r="T39" t="n">
-        <v>0.2</v>
+        <v>0</v>
       </c>
       <c r="U39" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="V39" t="n">
-        <v>20</v>
+        <v>0</v>
       </c>
       <c r="W39" t="n">
-        <v>0.2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="40">
       <c r="A40" t="n">
-        <v>74</v>
+        <v>65</v>
       </c>
       <c r="B40" t="n">
-        <v>3</v>
+        <v>1</v>
       </c>
       <c r="C40" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="D40" t="n">
-        <v>0</v>
+        <v>100</v>
       </c>
       <c r="E40" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="F40" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="G40" t="n">
-        <v>33.33333333333333</v>
+        <v>0</v>
       </c>
       <c r="H40" t="n">
-        <v>0.3333333333333333</v>
+        <v>0</v>
       </c>
       <c r="I40" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="J40" t="n">
-        <v>33.33333333333333</v>
+        <v>0</v>
       </c>
       <c r="K40" t="n">
-        <v>0.3333333333333333</v>
+        <v>0</v>
       </c>
       <c r="L40" t="n">
         <v>0</v>
@@ -3301,13 +3301,13 @@
         <v>0</v>
       </c>
       <c r="R40" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="S40" t="n">
-        <v>33.33333333333333</v>
+        <v>0</v>
       </c>
       <c r="T40" t="n">
-        <v>0.3333333333333333</v>
+        <v>0</v>
       </c>
       <c r="U40" t="n">
         <v>0</v>
@@ -3321,7 +3321,7 @@
     </row>
     <row r="41">
       <c r="A41" t="n">
-        <v>75</v>
+        <v>66</v>
       </c>
       <c r="B41" t="n">
         <v>3</v>
@@ -3354,13 +3354,13 @@
         <v>0.3333333333333333</v>
       </c>
       <c r="L41" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="M41" t="n">
-        <v>0</v>
+        <v>66.66666666666666</v>
       </c>
       <c r="N41" t="n">
-        <v>0</v>
+        <v>0.6666666666666666</v>
       </c>
       <c r="O41" t="n">
         <v>0</v>
@@ -3372,66 +3372,66 @@
         <v>0</v>
       </c>
       <c r="R41" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="S41" t="n">
-        <v>33.33333333333333</v>
+        <v>0</v>
       </c>
       <c r="T41" t="n">
-        <v>0.3333333333333333</v>
+        <v>0</v>
       </c>
       <c r="U41" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="V41" t="n">
-        <v>33.33333333333333</v>
+        <v>0</v>
       </c>
       <c r="W41" t="n">
-        <v>0.3333333333333333</v>
+        <v>0</v>
       </c>
     </row>
     <row r="42">
       <c r="A42" t="n">
-        <v>76</v>
+        <v>67</v>
       </c>
       <c r="B42" t="n">
-        <v>2</v>
+        <v>8</v>
       </c>
       <c r="C42" t="n">
-        <v>0</v>
+        <v>4</v>
       </c>
       <c r="D42" t="n">
-        <v>0</v>
+        <v>50</v>
       </c>
       <c r="E42" t="n">
-        <v>0</v>
+        <v>0.5</v>
       </c>
       <c r="F42" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="G42" t="n">
-        <v>50</v>
+        <v>0</v>
       </c>
       <c r="H42" t="n">
-        <v>0.5</v>
+        <v>0</v>
       </c>
       <c r="I42" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="J42" t="n">
-        <v>0</v>
+        <v>12.5</v>
       </c>
       <c r="K42" t="n">
-        <v>0</v>
+        <v>0.125</v>
       </c>
       <c r="L42" t="n">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="M42" t="n">
-        <v>50</v>
+        <v>37.5</v>
       </c>
       <c r="N42" t="n">
-        <v>0.5</v>
+        <v>0.375</v>
       </c>
       <c r="O42" t="n">
         <v>0</v>
@@ -3463,28 +3463,28 @@
     </row>
     <row r="43">
       <c r="A43" t="n">
-        <v>77</v>
+        <v>68</v>
       </c>
       <c r="B43" t="n">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="C43" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="D43" t="n">
-        <v>0</v>
+        <v>50</v>
       </c>
       <c r="E43" t="n">
-        <v>0</v>
+        <v>0.5</v>
       </c>
       <c r="F43" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="G43" t="n">
-        <v>100</v>
+        <v>0</v>
       </c>
       <c r="H43" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="I43" t="n">
         <v>0</v>
@@ -3496,13 +3496,13 @@
         <v>0</v>
       </c>
       <c r="L43" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="M43" t="n">
-        <v>0</v>
+        <v>50</v>
       </c>
       <c r="N43" t="n">
-        <v>0</v>
+        <v>0.5</v>
       </c>
       <c r="O43" t="n">
         <v>0</v>
@@ -3534,7 +3534,7 @@
     </row>
     <row r="44">
       <c r="A44" t="n">
-        <v>78</v>
+        <v>69</v>
       </c>
       <c r="B44" t="n">
         <v>1</v>
@@ -3558,22 +3558,22 @@
         <v>0</v>
       </c>
       <c r="I44" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="J44" t="n">
-        <v>0</v>
+        <v>100</v>
       </c>
       <c r="K44" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="L44" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="M44" t="n">
-        <v>100</v>
+        <v>0</v>
       </c>
       <c r="N44" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="O44" t="n">
         <v>0</v>
@@ -3605,7 +3605,7 @@
     </row>
     <row r="45">
       <c r="A45" t="n">
-        <v>80</v>
+        <v>71</v>
       </c>
       <c r="B45" t="n">
         <v>1</v>
@@ -3629,13 +3629,13 @@
         <v>0</v>
       </c>
       <c r="I45" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="J45" t="n">
-        <v>0</v>
+        <v>100</v>
       </c>
       <c r="K45" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="L45" t="n">
         <v>0</v>
@@ -3665,21 +3665,21 @@
         <v>0</v>
       </c>
       <c r="U45" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="V45" t="n">
-        <v>100</v>
+        <v>0</v>
       </c>
       <c r="W45" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="46">
       <c r="A46" t="n">
-        <v>82</v>
+        <v>73</v>
       </c>
       <c r="B46" t="n">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="C46" t="n">
         <v>0</v>
@@ -3691,22 +3691,22 @@
         <v>0</v>
       </c>
       <c r="F46" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="G46" t="n">
-        <v>33.33333333333333</v>
+        <v>0</v>
       </c>
       <c r="H46" t="n">
-        <v>0.3333333333333333</v>
+        <v>0</v>
       </c>
       <c r="I46" t="n">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="J46" t="n">
-        <v>33.33333333333333</v>
+        <v>100</v>
       </c>
       <c r="K46" t="n">
-        <v>0.3333333333333333</v>
+        <v>1</v>
       </c>
       <c r="L46" t="n">
         <v>0</v>
@@ -3736,21 +3736,21 @@
         <v>0</v>
       </c>
       <c r="U46" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="V46" t="n">
-        <v>33.33333333333333</v>
+        <v>0</v>
       </c>
       <c r="W46" t="n">
-        <v>0.3333333333333333</v>
+        <v>0</v>
       </c>
     </row>
     <row r="47">
       <c r="A47" t="n">
-        <v>84</v>
+        <v>74</v>
       </c>
       <c r="B47" t="n">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="C47" t="n">
         <v>0</v>
@@ -3762,13 +3762,13 @@
         <v>0</v>
       </c>
       <c r="F47" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="G47" t="n">
-        <v>50</v>
+        <v>0</v>
       </c>
       <c r="H47" t="n">
-        <v>0.5</v>
+        <v>0</v>
       </c>
       <c r="I47" t="n">
         <v>0</v>
@@ -3783,10 +3783,10 @@
         <v>1</v>
       </c>
       <c r="M47" t="n">
-        <v>50</v>
+        <v>100</v>
       </c>
       <c r="N47" t="n">
-        <v>0.5</v>
+        <v>1</v>
       </c>
       <c r="O47" t="n">
         <v>0</v>
@@ -3818,10 +3818,10 @@
     </row>
     <row r="48">
       <c r="A48" t="n">
-        <v>85</v>
+        <v>77</v>
       </c>
       <c r="B48" t="n">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="C48" t="n">
         <v>0</v>
@@ -3833,31 +3833,31 @@
         <v>0</v>
       </c>
       <c r="F48" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="G48" t="n">
-        <v>50</v>
+        <v>0</v>
       </c>
       <c r="H48" t="n">
-        <v>0.5</v>
+        <v>0</v>
       </c>
       <c r="I48" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="J48" t="n">
-        <v>0</v>
+        <v>100</v>
       </c>
       <c r="K48" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="L48" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="M48" t="n">
-        <v>50</v>
+        <v>0</v>
       </c>
       <c r="N48" t="n">
-        <v>0.5</v>
+        <v>0</v>
       </c>
       <c r="O48" t="n">
         <v>0</v>
@@ -3889,28 +3889,28 @@
     </row>
     <row r="49">
       <c r="A49" t="n">
-        <v>86</v>
+        <v>78</v>
       </c>
       <c r="B49" t="n">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="C49" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="D49" t="n">
-        <v>0</v>
+        <v>50</v>
       </c>
       <c r="E49" t="n">
-        <v>0</v>
+        <v>0.5</v>
       </c>
       <c r="F49" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="G49" t="n">
-        <v>100</v>
+        <v>0</v>
       </c>
       <c r="H49" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="I49" t="n">
         <v>0</v>
@@ -3922,13 +3922,13 @@
         <v>0</v>
       </c>
       <c r="L49" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="M49" t="n">
-        <v>0</v>
+        <v>50</v>
       </c>
       <c r="N49" t="n">
-        <v>0</v>
+        <v>0.5</v>
       </c>
       <c r="O49" t="n">
         <v>0</v>
@@ -3960,46 +3960,46 @@
     </row>
     <row r="50">
       <c r="A50" t="n">
-        <v>90</v>
+        <v>79</v>
       </c>
       <c r="B50" t="n">
+        <v>5</v>
+      </c>
+      <c r="C50" t="n">
+        <v>0</v>
+      </c>
+      <c r="D50" t="n">
+        <v>0</v>
+      </c>
+      <c r="E50" t="n">
+        <v>0</v>
+      </c>
+      <c r="F50" t="n">
+        <v>1</v>
+      </c>
+      <c r="G50" t="n">
+        <v>20</v>
+      </c>
+      <c r="H50" t="n">
+        <v>0.2</v>
+      </c>
+      <c r="I50" t="n">
         <v>2</v>
       </c>
-      <c r="C50" t="n">
-        <v>0</v>
-      </c>
-      <c r="D50" t="n">
-        <v>0</v>
-      </c>
-      <c r="E50" t="n">
-        <v>0</v>
-      </c>
-      <c r="F50" t="n">
-        <v>0</v>
-      </c>
-      <c r="G50" t="n">
-        <v>0</v>
-      </c>
-      <c r="H50" t="n">
-        <v>0</v>
-      </c>
-      <c r="I50" t="n">
-        <v>1</v>
-      </c>
       <c r="J50" t="n">
-        <v>50</v>
+        <v>40</v>
       </c>
       <c r="K50" t="n">
-        <v>0.5</v>
+        <v>0.4</v>
       </c>
       <c r="L50" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="M50" t="n">
-        <v>0</v>
+        <v>40</v>
       </c>
       <c r="N50" t="n">
-        <v>0</v>
+        <v>0.4</v>
       </c>
       <c r="O50" t="n">
         <v>0</v>
@@ -4011,13 +4011,13 @@
         <v>0</v>
       </c>
       <c r="R50" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="S50" t="n">
-        <v>50</v>
+        <v>0</v>
       </c>
       <c r="T50" t="n">
-        <v>0.5</v>
+        <v>0</v>
       </c>
       <c r="U50" t="n">
         <v>0</v>
@@ -4031,28 +4031,28 @@
     </row>
     <row r="51">
       <c r="A51" t="n">
-        <v>93</v>
+        <v>81</v>
       </c>
       <c r="B51" t="n">
-        <v>3</v>
+        <v>1</v>
       </c>
       <c r="C51" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="D51" t="n">
-        <v>0</v>
+        <v>100</v>
       </c>
       <c r="E51" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="F51" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="G51" t="n">
-        <v>33.33333333333333</v>
+        <v>0</v>
       </c>
       <c r="H51" t="n">
-        <v>0.3333333333333333</v>
+        <v>0</v>
       </c>
       <c r="I51" t="n">
         <v>0</v>
@@ -4064,13 +4064,13 @@
         <v>0</v>
       </c>
       <c r="L51" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="M51" t="n">
-        <v>66.66666666666666</v>
+        <v>0</v>
       </c>
       <c r="N51" t="n">
-        <v>0.6666666666666666</v>
+        <v>0</v>
       </c>
       <c r="O51" t="n">
         <v>0</v>
@@ -4102,19 +4102,19 @@
     </row>
     <row r="52">
       <c r="A52" t="n">
-        <v>94</v>
+        <v>82</v>
       </c>
       <c r="B52" t="n">
-        <v>4</v>
+        <v>1</v>
       </c>
       <c r="C52" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="D52" t="n">
-        <v>25</v>
+        <v>0</v>
       </c>
       <c r="E52" t="n">
-        <v>0.25</v>
+        <v>0</v>
       </c>
       <c r="F52" t="n">
         <v>0</v>
@@ -4156,27 +4156,27 @@
         <v>1</v>
       </c>
       <c r="S52" t="n">
-        <v>25</v>
+        <v>100</v>
       </c>
       <c r="T52" t="n">
-        <v>0.25</v>
+        <v>1</v>
       </c>
       <c r="U52" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="V52" t="n">
-        <v>50</v>
+        <v>0</v>
       </c>
       <c r="W52" t="n">
-        <v>0.5</v>
+        <v>0</v>
       </c>
     </row>
     <row r="53">
       <c r="A53" t="n">
-        <v>96</v>
+        <v>83</v>
       </c>
       <c r="B53" t="n">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="C53" t="n">
         <v>0</v>
@@ -4197,22 +4197,22 @@
         <v>0</v>
       </c>
       <c r="I53" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="J53" t="n">
-        <v>0</v>
+        <v>100</v>
       </c>
       <c r="K53" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="L53" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="M53" t="n">
-        <v>100</v>
+        <v>0</v>
       </c>
       <c r="N53" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="O53" t="n">
         <v>0</v>
@@ -4244,10 +4244,10 @@
     </row>
     <row r="54">
       <c r="A54" t="n">
-        <v>99</v>
+        <v>84</v>
       </c>
       <c r="B54" t="n">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="C54" t="n">
         <v>0</v>
@@ -4259,22 +4259,22 @@
         <v>0</v>
       </c>
       <c r="F54" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="G54" t="n">
+        <v>0</v>
+      </c>
+      <c r="H54" t="n">
+        <v>0</v>
+      </c>
+      <c r="I54" t="n">
+        <v>3</v>
+      </c>
+      <c r="J54" t="n">
         <v>100</v>
       </c>
-      <c r="H54" t="n">
-        <v>1</v>
-      </c>
-      <c r="I54" t="n">
-        <v>0</v>
-      </c>
-      <c r="J54" t="n">
-        <v>0</v>
-      </c>
       <c r="K54" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="L54" t="n">
         <v>0</v>
@@ -4315,19 +4315,19 @@
     </row>
     <row r="55">
       <c r="A55" t="n">
-        <v>100</v>
+        <v>86</v>
       </c>
       <c r="B55" t="n">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="C55" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="D55" t="n">
-        <v>0</v>
+        <v>33.33333333333333</v>
       </c>
       <c r="E55" t="n">
-        <v>0</v>
+        <v>0.3333333333333333</v>
       </c>
       <c r="F55" t="n">
         <v>0</v>
@@ -4348,22 +4348,22 @@
         <v>0</v>
       </c>
       <c r="L55" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="M55" t="n">
-        <v>0</v>
+        <v>66.66666666666666</v>
       </c>
       <c r="N55" t="n">
-        <v>0</v>
+        <v>0.6666666666666666</v>
       </c>
       <c r="O55" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="P55" t="n">
-        <v>100</v>
+        <v>0</v>
       </c>
       <c r="Q55" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="R55" t="n">
         <v>0</v>
@@ -4381,432 +4381,6 @@
         <v>0</v>
       </c>
       <c r="W55" t="n">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="56">
-      <c r="A56" t="n">
-        <v>101</v>
-      </c>
-      <c r="B56" t="n">
-        <v>1</v>
-      </c>
-      <c r="C56" t="n">
-        <v>0</v>
-      </c>
-      <c r="D56" t="n">
-        <v>0</v>
-      </c>
-      <c r="E56" t="n">
-        <v>0</v>
-      </c>
-      <c r="F56" t="n">
-        <v>1</v>
-      </c>
-      <c r="G56" t="n">
-        <v>100</v>
-      </c>
-      <c r="H56" t="n">
-        <v>1</v>
-      </c>
-      <c r="I56" t="n">
-        <v>0</v>
-      </c>
-      <c r="J56" t="n">
-        <v>0</v>
-      </c>
-      <c r="K56" t="n">
-        <v>0</v>
-      </c>
-      <c r="L56" t="n">
-        <v>0</v>
-      </c>
-      <c r="M56" t="n">
-        <v>0</v>
-      </c>
-      <c r="N56" t="n">
-        <v>0</v>
-      </c>
-      <c r="O56" t="n">
-        <v>0</v>
-      </c>
-      <c r="P56" t="n">
-        <v>0</v>
-      </c>
-      <c r="Q56" t="n">
-        <v>0</v>
-      </c>
-      <c r="R56" t="n">
-        <v>0</v>
-      </c>
-      <c r="S56" t="n">
-        <v>0</v>
-      </c>
-      <c r="T56" t="n">
-        <v>0</v>
-      </c>
-      <c r="U56" t="n">
-        <v>0</v>
-      </c>
-      <c r="V56" t="n">
-        <v>0</v>
-      </c>
-      <c r="W56" t="n">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="57">
-      <c r="A57" t="n">
-        <v>102</v>
-      </c>
-      <c r="B57" t="n">
-        <v>2</v>
-      </c>
-      <c r="C57" t="n">
-        <v>1</v>
-      </c>
-      <c r="D57" t="n">
-        <v>50</v>
-      </c>
-      <c r="E57" t="n">
-        <v>0.5</v>
-      </c>
-      <c r="F57" t="n">
-        <v>1</v>
-      </c>
-      <c r="G57" t="n">
-        <v>50</v>
-      </c>
-      <c r="H57" t="n">
-        <v>0.5</v>
-      </c>
-      <c r="I57" t="n">
-        <v>0</v>
-      </c>
-      <c r="J57" t="n">
-        <v>0</v>
-      </c>
-      <c r="K57" t="n">
-        <v>0</v>
-      </c>
-      <c r="L57" t="n">
-        <v>0</v>
-      </c>
-      <c r="M57" t="n">
-        <v>0</v>
-      </c>
-      <c r="N57" t="n">
-        <v>0</v>
-      </c>
-      <c r="O57" t="n">
-        <v>0</v>
-      </c>
-      <c r="P57" t="n">
-        <v>0</v>
-      </c>
-      <c r="Q57" t="n">
-        <v>0</v>
-      </c>
-      <c r="R57" t="n">
-        <v>0</v>
-      </c>
-      <c r="S57" t="n">
-        <v>0</v>
-      </c>
-      <c r="T57" t="n">
-        <v>0</v>
-      </c>
-      <c r="U57" t="n">
-        <v>0</v>
-      </c>
-      <c r="V57" t="n">
-        <v>0</v>
-      </c>
-      <c r="W57" t="n">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="58">
-      <c r="A58" t="n">
-        <v>103</v>
-      </c>
-      <c r="B58" t="n">
-        <v>1</v>
-      </c>
-      <c r="C58" t="n">
-        <v>0</v>
-      </c>
-      <c r="D58" t="n">
-        <v>0</v>
-      </c>
-      <c r="E58" t="n">
-        <v>0</v>
-      </c>
-      <c r="F58" t="n">
-        <v>0</v>
-      </c>
-      <c r="G58" t="n">
-        <v>0</v>
-      </c>
-      <c r="H58" t="n">
-        <v>0</v>
-      </c>
-      <c r="I58" t="n">
-        <v>0</v>
-      </c>
-      <c r="J58" t="n">
-        <v>0</v>
-      </c>
-      <c r="K58" t="n">
-        <v>0</v>
-      </c>
-      <c r="L58" t="n">
-        <v>1</v>
-      </c>
-      <c r="M58" t="n">
-        <v>100</v>
-      </c>
-      <c r="N58" t="n">
-        <v>1</v>
-      </c>
-      <c r="O58" t="n">
-        <v>0</v>
-      </c>
-      <c r="P58" t="n">
-        <v>0</v>
-      </c>
-      <c r="Q58" t="n">
-        <v>0</v>
-      </c>
-      <c r="R58" t="n">
-        <v>0</v>
-      </c>
-      <c r="S58" t="n">
-        <v>0</v>
-      </c>
-      <c r="T58" t="n">
-        <v>0</v>
-      </c>
-      <c r="U58" t="n">
-        <v>0</v>
-      </c>
-      <c r="V58" t="n">
-        <v>0</v>
-      </c>
-      <c r="W58" t="n">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="59">
-      <c r="A59" t="n">
-        <v>105</v>
-      </c>
-      <c r="B59" t="n">
-        <v>2</v>
-      </c>
-      <c r="C59" t="n">
-        <v>0</v>
-      </c>
-      <c r="D59" t="n">
-        <v>0</v>
-      </c>
-      <c r="E59" t="n">
-        <v>0</v>
-      </c>
-      <c r="F59" t="n">
-        <v>1</v>
-      </c>
-      <c r="G59" t="n">
-        <v>50</v>
-      </c>
-      <c r="H59" t="n">
-        <v>0.5</v>
-      </c>
-      <c r="I59" t="n">
-        <v>0</v>
-      </c>
-      <c r="J59" t="n">
-        <v>0</v>
-      </c>
-      <c r="K59" t="n">
-        <v>0</v>
-      </c>
-      <c r="L59" t="n">
-        <v>0</v>
-      </c>
-      <c r="M59" t="n">
-        <v>0</v>
-      </c>
-      <c r="N59" t="n">
-        <v>0</v>
-      </c>
-      <c r="O59" t="n">
-        <v>0</v>
-      </c>
-      <c r="P59" t="n">
-        <v>0</v>
-      </c>
-      <c r="Q59" t="n">
-        <v>0</v>
-      </c>
-      <c r="R59" t="n">
-        <v>1</v>
-      </c>
-      <c r="S59" t="n">
-        <v>50</v>
-      </c>
-      <c r="T59" t="n">
-        <v>0.5</v>
-      </c>
-      <c r="U59" t="n">
-        <v>0</v>
-      </c>
-      <c r="V59" t="n">
-        <v>0</v>
-      </c>
-      <c r="W59" t="n">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="60">
-      <c r="A60" t="n">
-        <v>106</v>
-      </c>
-      <c r="B60" t="n">
-        <v>2</v>
-      </c>
-      <c r="C60" t="n">
-        <v>0</v>
-      </c>
-      <c r="D60" t="n">
-        <v>0</v>
-      </c>
-      <c r="E60" t="n">
-        <v>0</v>
-      </c>
-      <c r="F60" t="n">
-        <v>2</v>
-      </c>
-      <c r="G60" t="n">
-        <v>100</v>
-      </c>
-      <c r="H60" t="n">
-        <v>1</v>
-      </c>
-      <c r="I60" t="n">
-        <v>0</v>
-      </c>
-      <c r="J60" t="n">
-        <v>0</v>
-      </c>
-      <c r="K60" t="n">
-        <v>0</v>
-      </c>
-      <c r="L60" t="n">
-        <v>0</v>
-      </c>
-      <c r="M60" t="n">
-        <v>0</v>
-      </c>
-      <c r="N60" t="n">
-        <v>0</v>
-      </c>
-      <c r="O60" t="n">
-        <v>0</v>
-      </c>
-      <c r="P60" t="n">
-        <v>0</v>
-      </c>
-      <c r="Q60" t="n">
-        <v>0</v>
-      </c>
-      <c r="R60" t="n">
-        <v>0</v>
-      </c>
-      <c r="S60" t="n">
-        <v>0</v>
-      </c>
-      <c r="T60" t="n">
-        <v>0</v>
-      </c>
-      <c r="U60" t="n">
-        <v>0</v>
-      </c>
-      <c r="V60" t="n">
-        <v>0</v>
-      </c>
-      <c r="W60" t="n">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="61">
-      <c r="A61" t="n">
-        <v>110</v>
-      </c>
-      <c r="B61" t="n">
-        <v>4</v>
-      </c>
-      <c r="C61" t="n">
-        <v>1</v>
-      </c>
-      <c r="D61" t="n">
-        <v>25</v>
-      </c>
-      <c r="E61" t="n">
-        <v>0.25</v>
-      </c>
-      <c r="F61" t="n">
-        <v>1</v>
-      </c>
-      <c r="G61" t="n">
-        <v>25</v>
-      </c>
-      <c r="H61" t="n">
-        <v>0.25</v>
-      </c>
-      <c r="I61" t="n">
-        <v>2</v>
-      </c>
-      <c r="J61" t="n">
-        <v>50</v>
-      </c>
-      <c r="K61" t="n">
-        <v>0.5</v>
-      </c>
-      <c r="L61" t="n">
-        <v>0</v>
-      </c>
-      <c r="M61" t="n">
-        <v>0</v>
-      </c>
-      <c r="N61" t="n">
-        <v>0</v>
-      </c>
-      <c r="O61" t="n">
-        <v>0</v>
-      </c>
-      <c r="P61" t="n">
-        <v>0</v>
-      </c>
-      <c r="Q61" t="n">
-        <v>0</v>
-      </c>
-      <c r="R61" t="n">
-        <v>0</v>
-      </c>
-      <c r="S61" t="n">
-        <v>0</v>
-      </c>
-      <c r="T61" t="n">
-        <v>0</v>
-      </c>
-      <c r="U61" t="n">
-        <v>0</v>
-      </c>
-      <c r="V61" t="n">
-        <v>0</v>
-      </c>
-      <c r="W61" t="n">
         <v>0</v>
       </c>
     </row>

--- a/data/operator_shares_by_generation_elite_only.xlsx
+++ b/data/operator_shares_by_generation_elite_only.xlsx
@@ -461,94 +461,94 @@
       </c>
       <c r="F1" s="1" t="inlineStr">
         <is>
+          <t>BertMLM_count</t>
+        </is>
+      </c>
+      <c r="G1" s="1" t="inlineStr">
+        <is>
+          <t>BertMLM_percentage</t>
+        </is>
+      </c>
+      <c r="H1" s="1" t="inlineStr">
+        <is>
+          <t>BertMLM_share</t>
+        </is>
+      </c>
+      <c r="I1" s="1" t="inlineStr">
+        <is>
+          <t>OnePointCrossover_count</t>
+        </is>
+      </c>
+      <c r="J1" s="1" t="inlineStr">
+        <is>
+          <t>OnePointCrossover_percentage</t>
+        </is>
+      </c>
+      <c r="K1" s="1" t="inlineStr">
+        <is>
+          <t>OnePointCrossover_share</t>
+        </is>
+      </c>
+      <c r="L1" s="1" t="inlineStr">
+        <is>
+          <t>InstructionPreservingCrossover_count</t>
+        </is>
+      </c>
+      <c r="M1" s="1" t="inlineStr">
+        <is>
+          <t>InstructionPreservingCrossover_percentage</t>
+        </is>
+      </c>
+      <c r="N1" s="1" t="inlineStr">
+        <is>
+          <t>InstructionPreservingCrossover_share</t>
+        </is>
+      </c>
+      <c r="O1" s="1" t="inlineStr">
+        <is>
           <t>LLMBasedParaphrasing_count</t>
         </is>
       </c>
-      <c r="G1" s="1" t="inlineStr">
+      <c r="P1" s="1" t="inlineStr">
         <is>
           <t>LLMBasedParaphrasing_percentage</t>
         </is>
       </c>
-      <c r="H1" s="1" t="inlineStr">
+      <c r="Q1" s="1" t="inlineStr">
         <is>
           <t>LLMBasedParaphrasing_share</t>
         </is>
       </c>
-      <c r="I1" s="1" t="inlineStr">
+      <c r="R1" s="1" t="inlineStr">
         <is>
-          <t>InstructionPreservingCrossover_count</t>
+          <t>BackTranslation_JA_count</t>
         </is>
       </c>
-      <c r="J1" s="1" t="inlineStr">
+      <c r="S1" s="1" t="inlineStr">
         <is>
-          <t>InstructionPreservingCrossover_percentage</t>
+          <t>BackTranslation_JA_percentage</t>
         </is>
       </c>
-      <c r="K1" s="1" t="inlineStr">
+      <c r="T1" s="1" t="inlineStr">
         <is>
-          <t>InstructionPreservingCrossover_share</t>
+          <t>BackTranslation_JA_share</t>
         </is>
       </c>
-      <c r="L1" s="1" t="inlineStr">
-        <is>
-          <t>OnePointCrossover_count</t>
-        </is>
-      </c>
-      <c r="M1" s="1" t="inlineStr">
-        <is>
-          <t>OnePointCrossover_percentage</t>
-        </is>
-      </c>
-      <c r="N1" s="1" t="inlineStr">
-        <is>
-          <t>OnePointCrossover_share</t>
-        </is>
-      </c>
-      <c r="O1" s="1" t="inlineStr">
-        <is>
-          <t>BertMLM_count</t>
-        </is>
-      </c>
-      <c r="P1" s="1" t="inlineStr">
-        <is>
-          <t>BertMLM_percentage</t>
-        </is>
-      </c>
-      <c r="Q1" s="1" t="inlineStr">
-        <is>
-          <t>BertMLM_share</t>
-        </is>
-      </c>
-      <c r="R1" s="1" t="inlineStr">
+      <c r="U1" s="1" t="inlineStr">
         <is>
           <t>LLMBackTranslation_HI_count</t>
         </is>
       </c>
-      <c r="S1" s="1" t="inlineStr">
+      <c r="V1" s="1" t="inlineStr">
         <is>
           <t>LLMBackTranslation_HI_percentage</t>
         </is>
       </c>
-      <c r="T1" s="1" t="inlineStr">
+      <c r="W1" s="1" t="inlineStr">
         <is>
           <t>LLMBackTranslation_HI_share</t>
         </is>
       </c>
-      <c r="U1" s="1" t="inlineStr">
-        <is>
-          <t>BackTranslation_JA_count</t>
-        </is>
-      </c>
-      <c r="V1" s="1" t="inlineStr">
-        <is>
-          <t>BackTranslation_JA_percentage</t>
-        </is>
-      </c>
-      <c r="W1" s="1" t="inlineStr">
-        <is>
-          <t>BackTranslation_JA_share</t>
-        </is>
-      </c>
     </row>
     <row r="2">
       <c r="A2" t="n">
@@ -709,13 +709,13 @@
         <v>0</v>
       </c>
       <c r="F4" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="G4" t="n">
-        <v>0</v>
+        <v>100</v>
       </c>
       <c r="H4" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="I4" t="n">
         <v>0</v>
@@ -736,13 +736,13 @@
         <v>0</v>
       </c>
       <c r="O4" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="P4" t="n">
-        <v>100</v>
+        <v>0</v>
       </c>
       <c r="Q4" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="R4" t="n">
         <v>0</v>
@@ -789,22 +789,22 @@
         <v>0</v>
       </c>
       <c r="I5" t="n">
+        <v>1</v>
+      </c>
+      <c r="J5" t="n">
+        <v>25</v>
+      </c>
+      <c r="K5" t="n">
+        <v>0.25</v>
+      </c>
+      <c r="L5" t="n">
         <v>2</v>
       </c>
-      <c r="J5" t="n">
+      <c r="M5" t="n">
         <v>50</v>
       </c>
-      <c r="K5" t="n">
+      <c r="N5" t="n">
         <v>0.5</v>
-      </c>
-      <c r="L5" t="n">
-        <v>1</v>
-      </c>
-      <c r="M5" t="n">
-        <v>25</v>
-      </c>
-      <c r="N5" t="n">
-        <v>0.25</v>
       </c>
       <c r="O5" t="n">
         <v>0</v>
@@ -851,13 +851,13 @@
         <v>0</v>
       </c>
       <c r="F6" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="G6" t="n">
-        <v>0</v>
+        <v>100</v>
       </c>
       <c r="H6" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="I6" t="n">
         <v>0</v>
@@ -878,13 +878,13 @@
         <v>0</v>
       </c>
       <c r="O6" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="P6" t="n">
-        <v>100</v>
+        <v>0</v>
       </c>
       <c r="Q6" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="R6" t="n">
         <v>0</v>
@@ -1073,22 +1073,22 @@
         <v>0</v>
       </c>
       <c r="I9" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="J9" t="n">
-        <v>0</v>
+        <v>100</v>
       </c>
       <c r="K9" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="L9" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="M9" t="n">
-        <v>100</v>
+        <v>0</v>
       </c>
       <c r="N9" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="O9" t="n">
         <v>0</v>
@@ -1135,40 +1135,40 @@
         <v>0</v>
       </c>
       <c r="F10" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="G10" t="n">
+        <v>0</v>
+      </c>
+      <c r="H10" t="n">
+        <v>0</v>
+      </c>
+      <c r="I10" t="n">
+        <v>0</v>
+      </c>
+      <c r="J10" t="n">
+        <v>0</v>
+      </c>
+      <c r="K10" t="n">
+        <v>0</v>
+      </c>
+      <c r="L10" t="n">
+        <v>0</v>
+      </c>
+      <c r="M10" t="n">
+        <v>0</v>
+      </c>
+      <c r="N10" t="n">
+        <v>0</v>
+      </c>
+      <c r="O10" t="n">
+        <v>1</v>
+      </c>
+      <c r="P10" t="n">
         <v>100</v>
       </c>
-      <c r="H10" t="n">
-        <v>1</v>
-      </c>
-      <c r="I10" t="n">
-        <v>0</v>
-      </c>
-      <c r="J10" t="n">
-        <v>0</v>
-      </c>
-      <c r="K10" t="n">
-        <v>0</v>
-      </c>
-      <c r="L10" t="n">
-        <v>0</v>
-      </c>
-      <c r="M10" t="n">
-        <v>0</v>
-      </c>
-      <c r="N10" t="n">
-        <v>0</v>
-      </c>
-      <c r="O10" t="n">
-        <v>0</v>
-      </c>
-      <c r="P10" t="n">
-        <v>0</v>
-      </c>
       <c r="Q10" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="R10" t="n">
         <v>0</v>
@@ -1215,22 +1215,22 @@
         <v>0</v>
       </c>
       <c r="I11" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="J11" t="n">
+        <v>0</v>
+      </c>
+      <c r="K11" t="n">
+        <v>0</v>
+      </c>
+      <c r="L11" t="n">
+        <v>1</v>
+      </c>
+      <c r="M11" t="n">
         <v>100</v>
       </c>
-      <c r="K11" t="n">
-        <v>1</v>
-      </c>
-      <c r="L11" t="n">
-        <v>0</v>
-      </c>
-      <c r="M11" t="n">
-        <v>0</v>
-      </c>
       <c r="N11" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="O11" t="n">
         <v>0</v>
@@ -1286,22 +1286,22 @@
         <v>0</v>
       </c>
       <c r="I12" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="J12" t="n">
+        <v>0</v>
+      </c>
+      <c r="K12" t="n">
+        <v>0</v>
+      </c>
+      <c r="L12" t="n">
+        <v>1</v>
+      </c>
+      <c r="M12" t="n">
         <v>100</v>
       </c>
-      <c r="K12" t="n">
-        <v>1</v>
-      </c>
-      <c r="L12" t="n">
-        <v>0</v>
-      </c>
-      <c r="M12" t="n">
-        <v>0</v>
-      </c>
       <c r="N12" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="O12" t="n">
         <v>0</v>
@@ -1384,22 +1384,22 @@
         <v>0</v>
       </c>
       <c r="R13" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="S13" t="n">
-        <v>0</v>
+        <v>33.33333333333333</v>
       </c>
       <c r="T13" t="n">
-        <v>0</v>
+        <v>0.3333333333333333</v>
       </c>
       <c r="U13" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="V13" t="n">
-        <v>33.33333333333333</v>
+        <v>0</v>
       </c>
       <c r="W13" t="n">
-        <v>0.3333333333333333</v>
+        <v>0</v>
       </c>
     </row>
     <row r="14">
@@ -1428,22 +1428,22 @@
         <v>0</v>
       </c>
       <c r="I14" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="J14" t="n">
+        <v>0</v>
+      </c>
+      <c r="K14" t="n">
+        <v>0</v>
+      </c>
+      <c r="L14" t="n">
+        <v>1</v>
+      </c>
+      <c r="M14" t="n">
         <v>100</v>
       </c>
-      <c r="K14" t="n">
-        <v>1</v>
-      </c>
-      <c r="L14" t="n">
-        <v>0</v>
-      </c>
-      <c r="M14" t="n">
-        <v>0</v>
-      </c>
       <c r="N14" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="O14" t="n">
         <v>0</v>
@@ -1499,22 +1499,22 @@
         <v>0</v>
       </c>
       <c r="I15" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="J15" t="n">
+        <v>0</v>
+      </c>
+      <c r="K15" t="n">
+        <v>0</v>
+      </c>
+      <c r="L15" t="n">
+        <v>1</v>
+      </c>
+      <c r="M15" t="n">
         <v>100</v>
       </c>
-      <c r="K15" t="n">
-        <v>1</v>
-      </c>
-      <c r="L15" t="n">
-        <v>0</v>
-      </c>
-      <c r="M15" t="n">
-        <v>0</v>
-      </c>
       <c r="N15" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="O15" t="n">
         <v>0</v>
@@ -1561,13 +1561,13 @@
         <v>0</v>
       </c>
       <c r="F16" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="G16" t="n">
-        <v>0</v>
+        <v>100</v>
       </c>
       <c r="H16" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="I16" t="n">
         <v>0</v>
@@ -1588,13 +1588,13 @@
         <v>0</v>
       </c>
       <c r="O16" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="P16" t="n">
-        <v>100</v>
+        <v>0</v>
       </c>
       <c r="Q16" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="R16" t="n">
         <v>0</v>
@@ -1641,22 +1641,22 @@
         <v>0</v>
       </c>
       <c r="I17" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="J17" t="n">
+        <v>0</v>
+      </c>
+      <c r="K17" t="n">
+        <v>0</v>
+      </c>
+      <c r="L17" t="n">
+        <v>1</v>
+      </c>
+      <c r="M17" t="n">
         <v>100</v>
       </c>
-      <c r="K17" t="n">
-        <v>1</v>
-      </c>
-      <c r="L17" t="n">
-        <v>0</v>
-      </c>
-      <c r="M17" t="n">
-        <v>0</v>
-      </c>
       <c r="N17" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="O17" t="n">
         <v>0</v>
@@ -1703,40 +1703,40 @@
         <v>0</v>
       </c>
       <c r="F18" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="G18" t="n">
+        <v>0</v>
+      </c>
+      <c r="H18" t="n">
+        <v>0</v>
+      </c>
+      <c r="I18" t="n">
+        <v>0</v>
+      </c>
+      <c r="J18" t="n">
+        <v>0</v>
+      </c>
+      <c r="K18" t="n">
+        <v>0</v>
+      </c>
+      <c r="L18" t="n">
+        <v>1</v>
+      </c>
+      <c r="M18" t="n">
         <v>50</v>
       </c>
-      <c r="H18" t="n">
+      <c r="N18" t="n">
         <v>0.5</v>
       </c>
-      <c r="I18" t="n">
-        <v>1</v>
-      </c>
-      <c r="J18" t="n">
+      <c r="O18" t="n">
+        <v>1</v>
+      </c>
+      <c r="P18" t="n">
         <v>50</v>
       </c>
-      <c r="K18" t="n">
+      <c r="Q18" t="n">
         <v>0.5</v>
-      </c>
-      <c r="L18" t="n">
-        <v>0</v>
-      </c>
-      <c r="M18" t="n">
-        <v>0</v>
-      </c>
-      <c r="N18" t="n">
-        <v>0</v>
-      </c>
-      <c r="O18" t="n">
-        <v>0</v>
-      </c>
-      <c r="P18" t="n">
-        <v>0</v>
-      </c>
-      <c r="Q18" t="n">
-        <v>0</v>
       </c>
       <c r="R18" t="n">
         <v>0</v>
@@ -1783,22 +1783,22 @@
         <v>0</v>
       </c>
       <c r="I19" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="J19" t="n">
+        <v>0</v>
+      </c>
+      <c r="K19" t="n">
+        <v>0</v>
+      </c>
+      <c r="L19" t="n">
+        <v>1</v>
+      </c>
+      <c r="M19" t="n">
         <v>50</v>
       </c>
-      <c r="K19" t="n">
+      <c r="N19" t="n">
         <v>0.5</v>
-      </c>
-      <c r="L19" t="n">
-        <v>0</v>
-      </c>
-      <c r="M19" t="n">
-        <v>0</v>
-      </c>
-      <c r="N19" t="n">
-        <v>0</v>
       </c>
       <c r="O19" t="n">
         <v>0</v>
@@ -1916,40 +1916,40 @@
         <v>0.5</v>
       </c>
       <c r="F21" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="G21" t="n">
+        <v>0</v>
+      </c>
+      <c r="H21" t="n">
+        <v>0</v>
+      </c>
+      <c r="I21" t="n">
+        <v>0</v>
+      </c>
+      <c r="J21" t="n">
+        <v>0</v>
+      </c>
+      <c r="K21" t="n">
+        <v>0</v>
+      </c>
+      <c r="L21" t="n">
+        <v>0</v>
+      </c>
+      <c r="M21" t="n">
+        <v>0</v>
+      </c>
+      <c r="N21" t="n">
+        <v>0</v>
+      </c>
+      <c r="O21" t="n">
+        <v>1</v>
+      </c>
+      <c r="P21" t="n">
         <v>50</v>
       </c>
-      <c r="H21" t="n">
+      <c r="Q21" t="n">
         <v>0.5</v>
-      </c>
-      <c r="I21" t="n">
-        <v>0</v>
-      </c>
-      <c r="J21" t="n">
-        <v>0</v>
-      </c>
-      <c r="K21" t="n">
-        <v>0</v>
-      </c>
-      <c r="L21" t="n">
-        <v>0</v>
-      </c>
-      <c r="M21" t="n">
-        <v>0</v>
-      </c>
-      <c r="N21" t="n">
-        <v>0</v>
-      </c>
-      <c r="O21" t="n">
-        <v>0</v>
-      </c>
-      <c r="P21" t="n">
-        <v>0</v>
-      </c>
-      <c r="Q21" t="n">
-        <v>0</v>
       </c>
       <c r="R21" t="n">
         <v>0</v>
@@ -1996,22 +1996,22 @@
         <v>0</v>
       </c>
       <c r="I22" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="J22" t="n">
+        <v>0</v>
+      </c>
+      <c r="K22" t="n">
+        <v>0</v>
+      </c>
+      <c r="L22" t="n">
+        <v>1</v>
+      </c>
+      <c r="M22" t="n">
         <v>100</v>
       </c>
-      <c r="K22" t="n">
-        <v>1</v>
-      </c>
-      <c r="L22" t="n">
-        <v>0</v>
-      </c>
-      <c r="M22" t="n">
-        <v>0</v>
-      </c>
       <c r="N22" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="O22" t="n">
         <v>0</v>
@@ -2067,22 +2067,22 @@
         <v>0</v>
       </c>
       <c r="I23" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="J23" t="n">
+        <v>0</v>
+      </c>
+      <c r="K23" t="n">
+        <v>0</v>
+      </c>
+      <c r="L23" t="n">
+        <v>1</v>
+      </c>
+      <c r="M23" t="n">
         <v>100</v>
       </c>
-      <c r="K23" t="n">
-        <v>1</v>
-      </c>
-      <c r="L23" t="n">
-        <v>0</v>
-      </c>
-      <c r="M23" t="n">
-        <v>0</v>
-      </c>
       <c r="N23" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="O23" t="n">
         <v>0</v>
@@ -2138,22 +2138,22 @@
         <v>0</v>
       </c>
       <c r="I24" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="J24" t="n">
-        <v>0</v>
+        <v>50</v>
       </c>
       <c r="K24" t="n">
-        <v>0</v>
+        <v>0.5</v>
       </c>
       <c r="L24" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="M24" t="n">
-        <v>50</v>
+        <v>0</v>
       </c>
       <c r="N24" t="n">
-        <v>0.5</v>
+        <v>0</v>
       </c>
       <c r="O24" t="n">
         <v>0</v>
@@ -2200,40 +2200,40 @@
         <v>0</v>
       </c>
       <c r="F25" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="G25" t="n">
+        <v>0</v>
+      </c>
+      <c r="H25" t="n">
+        <v>0</v>
+      </c>
+      <c r="I25" t="n">
+        <v>0</v>
+      </c>
+      <c r="J25" t="n">
+        <v>0</v>
+      </c>
+      <c r="K25" t="n">
+        <v>0</v>
+      </c>
+      <c r="L25" t="n">
+        <v>0</v>
+      </c>
+      <c r="M25" t="n">
+        <v>0</v>
+      </c>
+      <c r="N25" t="n">
+        <v>0</v>
+      </c>
+      <c r="O25" t="n">
+        <v>1</v>
+      </c>
+      <c r="P25" t="n">
         <v>100</v>
       </c>
-      <c r="H25" t="n">
-        <v>1</v>
-      </c>
-      <c r="I25" t="n">
-        <v>0</v>
-      </c>
-      <c r="J25" t="n">
-        <v>0</v>
-      </c>
-      <c r="K25" t="n">
-        <v>0</v>
-      </c>
-      <c r="L25" t="n">
-        <v>0</v>
-      </c>
-      <c r="M25" t="n">
-        <v>0</v>
-      </c>
-      <c r="N25" t="n">
-        <v>0</v>
-      </c>
-      <c r="O25" t="n">
-        <v>0</v>
-      </c>
-      <c r="P25" t="n">
-        <v>0</v>
-      </c>
       <c r="Q25" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="R25" t="n">
         <v>0</v>
@@ -2280,22 +2280,22 @@
         <v>0</v>
       </c>
       <c r="I26" t="n">
+        <v>0</v>
+      </c>
+      <c r="J26" t="n">
+        <v>0</v>
+      </c>
+      <c r="K26" t="n">
+        <v>0</v>
+      </c>
+      <c r="L26" t="n">
         <v>2</v>
       </c>
-      <c r="J26" t="n">
+      <c r="M26" t="n">
         <v>100</v>
       </c>
-      <c r="K26" t="n">
-        <v>1</v>
-      </c>
-      <c r="L26" t="n">
-        <v>0</v>
-      </c>
-      <c r="M26" t="n">
-        <v>0</v>
-      </c>
       <c r="N26" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="O26" t="n">
         <v>0</v>
@@ -2342,40 +2342,40 @@
         <v>0</v>
       </c>
       <c r="F27" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="G27" t="n">
+        <v>0</v>
+      </c>
+      <c r="H27" t="n">
+        <v>0</v>
+      </c>
+      <c r="I27" t="n">
+        <v>0</v>
+      </c>
+      <c r="J27" t="n">
+        <v>0</v>
+      </c>
+      <c r="K27" t="n">
+        <v>0</v>
+      </c>
+      <c r="L27" t="n">
+        <v>0</v>
+      </c>
+      <c r="M27" t="n">
+        <v>0</v>
+      </c>
+      <c r="N27" t="n">
+        <v>0</v>
+      </c>
+      <c r="O27" t="n">
+        <v>1</v>
+      </c>
+      <c r="P27" t="n">
         <v>100</v>
       </c>
-      <c r="H27" t="n">
-        <v>1</v>
-      </c>
-      <c r="I27" t="n">
-        <v>0</v>
-      </c>
-      <c r="J27" t="n">
-        <v>0</v>
-      </c>
-      <c r="K27" t="n">
-        <v>0</v>
-      </c>
-      <c r="L27" t="n">
-        <v>0</v>
-      </c>
-      <c r="M27" t="n">
-        <v>0</v>
-      </c>
-      <c r="N27" t="n">
-        <v>0</v>
-      </c>
-      <c r="O27" t="n">
-        <v>0</v>
-      </c>
-      <c r="P27" t="n">
-        <v>0</v>
-      </c>
       <c r="Q27" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="R27" t="n">
         <v>0</v>
@@ -2422,22 +2422,22 @@
         <v>0</v>
       </c>
       <c r="I28" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="J28" t="n">
+        <v>0</v>
+      </c>
+      <c r="K28" t="n">
+        <v>0</v>
+      </c>
+      <c r="L28" t="n">
+        <v>1</v>
+      </c>
+      <c r="M28" t="n">
         <v>50</v>
       </c>
-      <c r="K28" t="n">
+      <c r="N28" t="n">
         <v>0.5</v>
-      </c>
-      <c r="L28" t="n">
-        <v>0</v>
-      </c>
-      <c r="M28" t="n">
-        <v>0</v>
-      </c>
-      <c r="N28" t="n">
-        <v>0</v>
       </c>
       <c r="O28" t="n">
         <v>0</v>
@@ -2493,22 +2493,22 @@
         <v>0</v>
       </c>
       <c r="I29" t="n">
+        <v>1</v>
+      </c>
+      <c r="J29" t="n">
+        <v>16.66666666666666</v>
+      </c>
+      <c r="K29" t="n">
+        <v>0.1666666666666667</v>
+      </c>
+      <c r="L29" t="n">
         <v>3</v>
       </c>
-      <c r="J29" t="n">
+      <c r="M29" t="n">
         <v>50</v>
       </c>
-      <c r="K29" t="n">
+      <c r="N29" t="n">
         <v>0.5</v>
-      </c>
-      <c r="L29" t="n">
-        <v>1</v>
-      </c>
-      <c r="M29" t="n">
-        <v>16.66666666666666</v>
-      </c>
-      <c r="N29" t="n">
-        <v>0.1666666666666667</v>
       </c>
       <c r="O29" t="n">
         <v>0</v>
@@ -2564,22 +2564,22 @@
         <v>0</v>
       </c>
       <c r="I30" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="J30" t="n">
+        <v>0</v>
+      </c>
+      <c r="K30" t="n">
+        <v>0</v>
+      </c>
+      <c r="L30" t="n">
+        <v>1</v>
+      </c>
+      <c r="M30" t="n">
         <v>100</v>
       </c>
-      <c r="K30" t="n">
-        <v>1</v>
-      </c>
-      <c r="L30" t="n">
-        <v>0</v>
-      </c>
-      <c r="M30" t="n">
-        <v>0</v>
-      </c>
       <c r="N30" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="O30" t="n">
         <v>0</v>
@@ -2697,40 +2697,40 @@
         <v>0</v>
       </c>
       <c r="F32" t="n">
+        <v>1</v>
+      </c>
+      <c r="G32" t="n">
+        <v>33.33333333333333</v>
+      </c>
+      <c r="H32" t="n">
+        <v>0.3333333333333333</v>
+      </c>
+      <c r="I32" t="n">
+        <v>0</v>
+      </c>
+      <c r="J32" t="n">
+        <v>0</v>
+      </c>
+      <c r="K32" t="n">
+        <v>0</v>
+      </c>
+      <c r="L32" t="n">
+        <v>0</v>
+      </c>
+      <c r="M32" t="n">
+        <v>0</v>
+      </c>
+      <c r="N32" t="n">
+        <v>0</v>
+      </c>
+      <c r="O32" t="n">
         <v>2</v>
       </c>
-      <c r="G32" t="n">
+      <c r="P32" t="n">
         <v>66.66666666666666</v>
       </c>
-      <c r="H32" t="n">
+      <c r="Q32" t="n">
         <v>0.6666666666666666</v>
-      </c>
-      <c r="I32" t="n">
-        <v>0</v>
-      </c>
-      <c r="J32" t="n">
-        <v>0</v>
-      </c>
-      <c r="K32" t="n">
-        <v>0</v>
-      </c>
-      <c r="L32" t="n">
-        <v>0</v>
-      </c>
-      <c r="M32" t="n">
-        <v>0</v>
-      </c>
-      <c r="N32" t="n">
-        <v>0</v>
-      </c>
-      <c r="O32" t="n">
-        <v>1</v>
-      </c>
-      <c r="P32" t="n">
-        <v>33.33333333333333</v>
-      </c>
-      <c r="Q32" t="n">
-        <v>0.3333333333333333</v>
       </c>
       <c r="R32" t="n">
         <v>0</v>
@@ -2839,13 +2839,13 @@
         <v>0</v>
       </c>
       <c r="F34" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="G34" t="n">
-        <v>0</v>
+        <v>100</v>
       </c>
       <c r="H34" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="I34" t="n">
         <v>0</v>
@@ -2866,13 +2866,13 @@
         <v>0</v>
       </c>
       <c r="O34" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="P34" t="n">
-        <v>100</v>
+        <v>0</v>
       </c>
       <c r="Q34" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="R34" t="n">
         <v>0</v>
@@ -2910,40 +2910,40 @@
         <v>0</v>
       </c>
       <c r="F35" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="G35" t="n">
+        <v>0</v>
+      </c>
+      <c r="H35" t="n">
+        <v>0</v>
+      </c>
+      <c r="I35" t="n">
+        <v>0</v>
+      </c>
+      <c r="J35" t="n">
+        <v>0</v>
+      </c>
+      <c r="K35" t="n">
+        <v>0</v>
+      </c>
+      <c r="L35" t="n">
+        <v>1</v>
+      </c>
+      <c r="M35" t="n">
         <v>50</v>
       </c>
-      <c r="H35" t="n">
+      <c r="N35" t="n">
         <v>0.5</v>
       </c>
-      <c r="I35" t="n">
-        <v>1</v>
-      </c>
-      <c r="J35" t="n">
+      <c r="O35" t="n">
+        <v>1</v>
+      </c>
+      <c r="P35" t="n">
         <v>50</v>
       </c>
-      <c r="K35" t="n">
+      <c r="Q35" t="n">
         <v>0.5</v>
-      </c>
-      <c r="L35" t="n">
-        <v>0</v>
-      </c>
-      <c r="M35" t="n">
-        <v>0</v>
-      </c>
-      <c r="N35" t="n">
-        <v>0</v>
-      </c>
-      <c r="O35" t="n">
-        <v>0</v>
-      </c>
-      <c r="P35" t="n">
-        <v>0</v>
-      </c>
-      <c r="Q35" t="n">
-        <v>0</v>
       </c>
       <c r="R35" t="n">
         <v>0</v>
@@ -2990,22 +2990,22 @@
         <v>0</v>
       </c>
       <c r="I36" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="J36" t="n">
+        <v>0</v>
+      </c>
+      <c r="K36" t="n">
+        <v>0</v>
+      </c>
+      <c r="L36" t="n">
+        <v>1</v>
+      </c>
+      <c r="M36" t="n">
         <v>100</v>
       </c>
-      <c r="K36" t="n">
-        <v>1</v>
-      </c>
-      <c r="L36" t="n">
-        <v>0</v>
-      </c>
-      <c r="M36" t="n">
-        <v>0</v>
-      </c>
       <c r="N36" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="O36" t="n">
         <v>0</v>
@@ -3061,22 +3061,22 @@
         <v>0</v>
       </c>
       <c r="I37" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="J37" t="n">
+        <v>0</v>
+      </c>
+      <c r="K37" t="n">
+        <v>0</v>
+      </c>
+      <c r="L37" t="n">
+        <v>1</v>
+      </c>
+      <c r="M37" t="n">
         <v>100</v>
       </c>
-      <c r="K37" t="n">
-        <v>1</v>
-      </c>
-      <c r="L37" t="n">
-        <v>0</v>
-      </c>
-      <c r="M37" t="n">
-        <v>0</v>
-      </c>
       <c r="N37" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="O37" t="n">
         <v>0</v>
@@ -3132,22 +3132,22 @@
         <v>0</v>
       </c>
       <c r="I38" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="J38" t="n">
+        <v>0</v>
+      </c>
+      <c r="K38" t="n">
+        <v>0</v>
+      </c>
+      <c r="L38" t="n">
+        <v>1</v>
+      </c>
+      <c r="M38" t="n">
         <v>50</v>
       </c>
-      <c r="K38" t="n">
+      <c r="N38" t="n">
         <v>0.5</v>
-      </c>
-      <c r="L38" t="n">
-        <v>0</v>
-      </c>
-      <c r="M38" t="n">
-        <v>0</v>
-      </c>
-      <c r="N38" t="n">
-        <v>0</v>
       </c>
       <c r="O38" t="n">
         <v>0</v>
@@ -3345,22 +3345,22 @@
         <v>0</v>
       </c>
       <c r="I41" t="n">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="J41" t="n">
+        <v>66.66666666666666</v>
+      </c>
+      <c r="K41" t="n">
+        <v>0.6666666666666666</v>
+      </c>
+      <c r="L41" t="n">
+        <v>1</v>
+      </c>
+      <c r="M41" t="n">
         <v>33.33333333333333</v>
       </c>
-      <c r="K41" t="n">
+      <c r="N41" t="n">
         <v>0.3333333333333333</v>
-      </c>
-      <c r="L41" t="n">
-        <v>2</v>
-      </c>
-      <c r="M41" t="n">
-        <v>66.66666666666666</v>
-      </c>
-      <c r="N41" t="n">
-        <v>0.6666666666666666</v>
       </c>
       <c r="O41" t="n">
         <v>0</v>
@@ -3416,22 +3416,22 @@
         <v>0</v>
       </c>
       <c r="I42" t="n">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="J42" t="n">
+        <v>37.5</v>
+      </c>
+      <c r="K42" t="n">
+        <v>0.375</v>
+      </c>
+      <c r="L42" t="n">
+        <v>1</v>
+      </c>
+      <c r="M42" t="n">
         <v>12.5</v>
       </c>
-      <c r="K42" t="n">
+      <c r="N42" t="n">
         <v>0.125</v>
-      </c>
-      <c r="L42" t="n">
-        <v>3</v>
-      </c>
-      <c r="M42" t="n">
-        <v>37.5</v>
-      </c>
-      <c r="N42" t="n">
-        <v>0.375</v>
       </c>
       <c r="O42" t="n">
         <v>0</v>
@@ -3487,22 +3487,22 @@
         <v>0</v>
       </c>
       <c r="I43" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="J43" t="n">
-        <v>0</v>
+        <v>50</v>
       </c>
       <c r="K43" t="n">
-        <v>0</v>
+        <v>0.5</v>
       </c>
       <c r="L43" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="M43" t="n">
-        <v>50</v>
+        <v>0</v>
       </c>
       <c r="N43" t="n">
-        <v>0.5</v>
+        <v>0</v>
       </c>
       <c r="O43" t="n">
         <v>0</v>
@@ -3558,22 +3558,22 @@
         <v>0</v>
       </c>
       <c r="I44" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="J44" t="n">
+        <v>0</v>
+      </c>
+      <c r="K44" t="n">
+        <v>0</v>
+      </c>
+      <c r="L44" t="n">
+        <v>1</v>
+      </c>
+      <c r="M44" t="n">
         <v>100</v>
       </c>
-      <c r="K44" t="n">
-        <v>1</v>
-      </c>
-      <c r="L44" t="n">
-        <v>0</v>
-      </c>
-      <c r="M44" t="n">
-        <v>0</v>
-      </c>
       <c r="N44" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="O44" t="n">
         <v>0</v>
@@ -3629,22 +3629,22 @@
         <v>0</v>
       </c>
       <c r="I45" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="J45" t="n">
+        <v>0</v>
+      </c>
+      <c r="K45" t="n">
+        <v>0</v>
+      </c>
+      <c r="L45" t="n">
+        <v>1</v>
+      </c>
+      <c r="M45" t="n">
         <v>100</v>
       </c>
-      <c r="K45" t="n">
-        <v>1</v>
-      </c>
-      <c r="L45" t="n">
-        <v>0</v>
-      </c>
-      <c r="M45" t="n">
-        <v>0</v>
-      </c>
       <c r="N45" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="O45" t="n">
         <v>0</v>
@@ -3700,22 +3700,22 @@
         <v>0</v>
       </c>
       <c r="I46" t="n">
+        <v>0</v>
+      </c>
+      <c r="J46" t="n">
+        <v>0</v>
+      </c>
+      <c r="K46" t="n">
+        <v>0</v>
+      </c>
+      <c r="L46" t="n">
         <v>2</v>
       </c>
-      <c r="J46" t="n">
+      <c r="M46" t="n">
         <v>100</v>
       </c>
-      <c r="K46" t="n">
-        <v>1</v>
-      </c>
-      <c r="L46" t="n">
-        <v>0</v>
-      </c>
-      <c r="M46" t="n">
-        <v>0</v>
-      </c>
       <c r="N46" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="O46" t="n">
         <v>0</v>
@@ -3771,22 +3771,22 @@
         <v>0</v>
       </c>
       <c r="I47" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="J47" t="n">
-        <v>0</v>
+        <v>100</v>
       </c>
       <c r="K47" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="L47" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="M47" t="n">
-        <v>100</v>
+        <v>0</v>
       </c>
       <c r="N47" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="O47" t="n">
         <v>0</v>
@@ -3842,22 +3842,22 @@
         <v>0</v>
       </c>
       <c r="I48" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="J48" t="n">
+        <v>0</v>
+      </c>
+      <c r="K48" t="n">
+        <v>0</v>
+      </c>
+      <c r="L48" t="n">
+        <v>1</v>
+      </c>
+      <c r="M48" t="n">
         <v>100</v>
       </c>
-      <c r="K48" t="n">
-        <v>1</v>
-      </c>
-      <c r="L48" t="n">
-        <v>0</v>
-      </c>
-      <c r="M48" t="n">
-        <v>0</v>
-      </c>
       <c r="N48" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="O48" t="n">
         <v>0</v>
@@ -3913,22 +3913,22 @@
         <v>0</v>
       </c>
       <c r="I49" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="J49" t="n">
-        <v>0</v>
+        <v>50</v>
       </c>
       <c r="K49" t="n">
-        <v>0</v>
+        <v>0.5</v>
       </c>
       <c r="L49" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="M49" t="n">
-        <v>50</v>
+        <v>0</v>
       </c>
       <c r="N49" t="n">
-        <v>0.5</v>
+        <v>0</v>
       </c>
       <c r="O49" t="n">
         <v>0</v>
@@ -3975,13 +3975,13 @@
         <v>0</v>
       </c>
       <c r="F50" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="G50" t="n">
-        <v>20</v>
+        <v>0</v>
       </c>
       <c r="H50" t="n">
-        <v>0.2</v>
+        <v>0</v>
       </c>
       <c r="I50" t="n">
         <v>2</v>
@@ -4002,13 +4002,13 @@
         <v>0.4</v>
       </c>
       <c r="O50" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="P50" t="n">
-        <v>0</v>
+        <v>20</v>
       </c>
       <c r="Q50" t="n">
-        <v>0</v>
+        <v>0.2</v>
       </c>
       <c r="R50" t="n">
         <v>0</v>
@@ -4153,22 +4153,22 @@
         <v>0</v>
       </c>
       <c r="R52" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="S52" t="n">
+        <v>0</v>
+      </c>
+      <c r="T52" t="n">
+        <v>0</v>
+      </c>
+      <c r="U52" t="n">
+        <v>1</v>
+      </c>
+      <c r="V52" t="n">
         <v>100</v>
       </c>
-      <c r="T52" t="n">
-        <v>1</v>
-      </c>
-      <c r="U52" t="n">
-        <v>0</v>
-      </c>
-      <c r="V52" t="n">
-        <v>0</v>
-      </c>
       <c r="W52" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="53">
@@ -4197,22 +4197,22 @@
         <v>0</v>
       </c>
       <c r="I53" t="n">
+        <v>0</v>
+      </c>
+      <c r="J53" t="n">
+        <v>0</v>
+      </c>
+      <c r="K53" t="n">
+        <v>0</v>
+      </c>
+      <c r="L53" t="n">
         <v>2</v>
       </c>
-      <c r="J53" t="n">
+      <c r="M53" t="n">
         <v>100</v>
       </c>
-      <c r="K53" t="n">
-        <v>1</v>
-      </c>
-      <c r="L53" t="n">
-        <v>0</v>
-      </c>
-      <c r="M53" t="n">
-        <v>0</v>
-      </c>
       <c r="N53" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="O53" t="n">
         <v>0</v>
@@ -4268,22 +4268,22 @@
         <v>0</v>
       </c>
       <c r="I54" t="n">
+        <v>0</v>
+      </c>
+      <c r="J54" t="n">
+        <v>0</v>
+      </c>
+      <c r="K54" t="n">
+        <v>0</v>
+      </c>
+      <c r="L54" t="n">
         <v>3</v>
       </c>
-      <c r="J54" t="n">
+      <c r="M54" t="n">
         <v>100</v>
       </c>
-      <c r="K54" t="n">
-        <v>1</v>
-      </c>
-      <c r="L54" t="n">
-        <v>0</v>
-      </c>
-      <c r="M54" t="n">
-        <v>0</v>
-      </c>
       <c r="N54" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="O54" t="n">
         <v>0</v>
@@ -4339,22 +4339,22 @@
         <v>0</v>
       </c>
       <c r="I55" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="J55" t="n">
-        <v>0</v>
+        <v>66.66666666666666</v>
       </c>
       <c r="K55" t="n">
-        <v>0</v>
+        <v>0.6666666666666666</v>
       </c>
       <c r="L55" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="M55" t="n">
-        <v>66.66666666666666</v>
+        <v>0</v>
       </c>
       <c r="N55" t="n">
-        <v>0.6666666666666666</v>
+        <v>0</v>
       </c>
       <c r="O55" t="n">
         <v>0</v>
